--- a/Darlehensrechner.xlsx
+++ b/Darlehensrechner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\Arbeit\projekte\schulung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D8F228-44E8-4BAD-BC14-C6C597E363B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9050509-395D-4C29-9601-FC8D8A908557}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -297,12 +297,6 @@
       <name val="Lucida Sans"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF404040"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -780,17 +774,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1467,10 +1461,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1482,7 +1472,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
+      <xdr:colOff>584199</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -1517,74 +1507,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1206500</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Button 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="32004" rIns="45720" bIns="32004" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="404040"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Sans"/>
-                </a:rPr>
-                <a:t>Schaltfläche 1</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1848,7 +1770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1">
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1857,7 +1779,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14"/>
@@ -1870,15 +1792,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="60.75" customHeight="1">
       <c r="A1" s="15"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="9.75" customHeight="1">
       <c r="B2" s="2"/>
@@ -1890,89 +1812,89 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="20.149999999999999" customHeight="1" thickBot="1">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3"/>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" ht="20.149999999999999" customHeight="1" thickTop="1">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="3">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="E4"/>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="12">
         <f ca="1">IFERROR(IF(DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.149999999999999" customHeight="1">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="4">
         <v>5.5E-2</v>
       </c>
       <c r="E5"/>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="13">
         <f ca="1">IFERROR(IF(DarlehenIstGut,DarlehensJahre*12,""), "")</f>
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.149999999999999" customHeight="1">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="5">
         <v>10</v>
       </c>
       <c r="E6"/>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="14">
         <f ca="1">IFERROR(IF(DarlehenIstGut,DarlehensKostenGesamt-DarlehensBetrag,""), "")</f>
-        <v>3930.099361834993</v>
+        <v>4534.7300328865349</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.149999999999999" customHeight="1">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="6">
         <f ca="1">TODAY()</f>
         <v>44150</v>
       </c>
       <c r="E7"/>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="14">
         <f ca="1">IFERROR(IF(DarlehenIstGut,MonatlicheZahlung*AnzahlZahlungen,""), "")</f>
-        <v>16930.099361834993</v>
+        <v>19534.730032886535</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
@@ -2018,23 +1940,23 @@
       </c>
       <c r="D10" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="E10" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F10" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>81.500828015291617</v>
+        <v>94.039416940721111</v>
       </c>
       <c r="G10" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>59.583333333333336</v>
+        <v>68.750000000000014</v>
       </c>
       <c r="H10" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12918.499171984708</v>
+        <v>14905.960583059277</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.149999999999999" customHeight="1">
@@ -2048,23 +1970,23 @@
       </c>
       <c r="D11" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12918.499171984708</v>
+        <v>14905.960583059277</v>
       </c>
       <c r="E11" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F11" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>81.874373477028371</v>
+        <v>94.470430935032738</v>
       </c>
       <c r="G11" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>59.209787871596582</v>
+        <v>68.318986005688373</v>
       </c>
       <c r="H11" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12836.624798507679</v>
+        <v>14811.490152124245</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.149999999999999" customHeight="1">
@@ -2078,23 +2000,23 @@
       </c>
       <c r="D12" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12836.624798507679</v>
+        <v>14811.490152124245</v>
       </c>
       <c r="E12" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F12" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>82.249631022131425</v>
+        <v>94.903420410151654</v>
       </c>
       <c r="G12" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>58.834530326493542</v>
+        <v>67.885996530569486</v>
       </c>
       <c r="H12" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12754.375167485548</v>
+        <v>14716.586731714093</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.149999999999999" customHeight="1">
@@ -2108,23 +2030,23 @@
       </c>
       <c r="D13" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12754.375167485548</v>
+        <v>14716.586731714093</v>
       </c>
       <c r="E13" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F13" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>82.626608497649528</v>
+        <v>95.33839442036485</v>
       </c>
       <c r="G13" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>58.457552850975432</v>
+        <v>67.451022520356261</v>
       </c>
       <c r="H13" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12671.7485589879</v>
+        <v>14621.248337293728</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.149999999999999" customHeight="1">
@@ -2138,23 +2060,23 @@
       </c>
       <c r="D14" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12671.7485589879</v>
+        <v>14621.248337293728</v>
       </c>
       <c r="E14" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F14" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>83.0053137865971</v>
+        <v>95.775362061458196</v>
       </c>
       <c r="G14" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>58.078847562027867</v>
+        <v>67.014054879262915</v>
       </c>
       <c r="H14" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12588.7432452013</v>
+        <v>14525.472975232269</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20.149999999999999" customHeight="1">
@@ -2168,23 +2090,23 @@
       </c>
       <c r="D15" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12588.7432452013</v>
+        <v>14525.472975232269</v>
       </c>
       <c r="E15" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F15" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>83.385754808118989</v>
+        <v>96.214332470906541</v>
       </c>
       <c r="G15" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>57.698406540505964</v>
+        <v>66.57508446981457</v>
       </c>
       <c r="H15" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12505.35749039318</v>
+        <v>14429.258642761361</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20.149999999999999" customHeight="1">
@@ -2198,23 +2120,23 @@
       </c>
       <c r="D16" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12505.35749039318</v>
+        <v>14429.258642761361</v>
       </c>
       <c r="E16" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F16" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>83.767939517656202</v>
+        <v>96.65531482806486</v>
       </c>
       <c r="G16" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>57.31622183096875</v>
+        <v>66.134102112656265</v>
       </c>
       <c r="H16" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12421.589550875527</v>
+        <v>14332.603327933301</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2228,23 +2150,23 @@
       </c>
       <c r="D17" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12421.589550875527</v>
+        <v>14332.603327933301</v>
       </c>
       <c r="E17" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F17" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>84.151875907112128</v>
+        <v>97.098318354360146</v>
       </c>
       <c r="G17" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>56.932285441512825</v>
+        <v>65.691098586360965</v>
       </c>
       <c r="H17" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12337.437674968414</v>
+        <v>14235.505009578939</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2258,23 +2180,23 @@
       </c>
       <c r="D18" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12337.437674968414</v>
+        <v>14235.505009578939</v>
       </c>
       <c r="E18" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F18" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>84.53757200501974</v>
+        <v>97.54335231348432</v>
       </c>
       <c r="G18" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>56.546589343605234</v>
+        <v>65.246064627236805</v>
       </c>
       <c r="H18" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12252.900102963395</v>
+        <v>14137.961657265456</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2288,23 +2210,23 @@
       </c>
       <c r="D19" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12252.900102963395</v>
+        <v>14137.961657265456</v>
       </c>
       <c r="E19" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F19" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>84.925035876709401</v>
+        <v>97.990426011587772</v>
       </c>
       <c r="G19" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>56.159125471915559</v>
+        <v>64.798990929133339</v>
       </c>
       <c r="H19" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12167.975067086683</v>
+        <v>14039.971231253865</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2318,23 +2240,23 @@
       </c>
       <c r="D20" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12167.975067086683</v>
+        <v>14039.971231253865</v>
       </c>
       <c r="E20" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F20" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>85.314275624477645</v>
+        <v>98.439548797474231</v>
       </c>
       <c r="G20" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>55.769885724147308</v>
+        <v>64.349868143246894</v>
       </c>
       <c r="H20" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12082.660791462205</v>
+        <v>13941.531682456391</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2348,23 +2270,23 @@
       </c>
       <c r="D21" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12082.660791462205</v>
+        <v>13941.531682456391</v>
       </c>
       <c r="E21" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F21" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>85.705299387756511</v>
+        <v>98.890730062795981</v>
       </c>
       <c r="G21" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>55.378861960868448</v>
+        <v>63.898686877925144</v>
       </c>
       <c r="H21" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11996.955492074452</v>
+        <v>13842.640952393598</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2378,23 +2300,23 @@
       </c>
       <c r="D22" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11996.955492074452</v>
+        <v>13842.640952393598</v>
       </c>
       <c r="E22" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F22" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>86.098115343283723</v>
+        <v>99.343979242250455</v>
       </c>
       <c r="G22" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>54.98604600534123</v>
+        <v>63.445437698470649</v>
       </c>
       <c r="H22" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11910.857376731166</v>
+        <v>13743.296973151346</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2408,23 +2330,23 @@
       </c>
       <c r="D23" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11910.857376731166</v>
+        <v>13743.296973151346</v>
       </c>
       <c r="E23" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F23" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>86.492731705273783</v>
+        <v>99.799305813777437</v>
       </c>
       <c r="G23" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>54.591429643351177</v>
+        <v>62.990111126943667</v>
       </c>
       <c r="H23" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11824.364645025891</v>
+        <v>13643.497667337568</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2438,23 +2360,23 @@
       </c>
       <c r="D24" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11824.364645025891</v>
+        <v>13643.497667337568</v>
       </c>
       <c r="E24" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F24" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>86.889156725589615</v>
+        <v>100.25671929875725</v>
       </c>
       <c r="G24" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>54.195004623035345</v>
+        <v>62.53269764196385</v>
       </c>
       <c r="H24" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11737.475488300304</v>
+        <v>13543.240948038812</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2468,23 +2390,23 @@
       </c>
       <c r="D25" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11737.475488300304</v>
+        <v>13543.240948038812</v>
       </c>
       <c r="E25" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F25" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>87.287398693915236</v>
+        <v>100.71622926220988</v>
       </c>
       <c r="G25" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>53.796762654709731</v>
+        <v>62.073187678511225</v>
       </c>
       <c r="H25" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11650.188089606387</v>
+        <v>13442.5247187766</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2498,23 +2420,23 @@
       </c>
       <c r="D26" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11650.188089606387</v>
+        <v>13442.5247187766</v>
       </c>
       <c r="E26" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F26" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>87.687465937929005</v>
+        <v>101.17784531299503</v>
       </c>
       <c r="G26" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>53.396695410695948</v>
+        <v>61.6115716277261</v>
       </c>
       <c r="H26" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11562.500623668457</v>
+        <v>13341.346873463604</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2528,23 +2450,23 @@
       </c>
       <c r="D27" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11562.500623668457</v>
+        <v>13341.346873463604</v>
       </c>
       <c r="E27" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F27" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>88.089366823477846</v>
+        <v>101.64157710401291</v>
       </c>
       <c r="G27" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>52.9947945251471</v>
+        <v>61.147839836708201</v>
       </c>
       <c r="H27" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11474.411256844978</v>
+        <v>13239.705296359589</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2558,23 +2480,23 @@
       </c>
       <c r="D28" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11474.411256844978</v>
+        <v>13239.705296359589</v>
       </c>
       <c r="E28" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F28" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>88.493109754752126</v>
+        <v>102.1074343324063</v>
       </c>
       <c r="G28" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>52.591051593872841</v>
+        <v>60.681982608314819</v>
       </c>
       <c r="H28" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11385.918147090229</v>
+        <v>13137.597862027187</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2588,23 +2510,23 @@
       </c>
       <c r="D29" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11385.918147090229</v>
+        <v>13137.597862027187</v>
       </c>
       <c r="E29" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F29" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>88.898703174461403</v>
+        <v>102.57542673976316</v>
       </c>
       <c r="G29" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>52.18545817416355</v>
+        <v>60.213990200957952</v>
       </c>
       <c r="H29" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11297.019443915768</v>
+        <v>13035.022435287423</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2618,23 +2540,23 @@
       </c>
       <c r="D30" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11297.019443915768</v>
+        <v>13035.022435287423</v>
       </c>
       <c r="E30" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F30" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>89.306155564011021</v>
+        <v>103.04556411232042</v>
       </c>
       <c r="G30" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>51.778005784613939</v>
+        <v>59.743852828400698</v>
       </c>
       <c r="H30" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11207.713288351755</v>
+        <v>12931.9768711751</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2648,23 +2570,23 @@
       </c>
       <c r="D31" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11207.713288351755</v>
+        <v>12931.9768711751</v>
       </c>
       <c r="E31" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F31" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>89.715475443679395</v>
+        <v>103.51785628116855</v>
       </c>
       <c r="G31" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>51.368685904945551</v>
+        <v>59.27156065955257</v>
       </c>
       <c r="H31" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11117.997812908072</v>
+        <v>12828.45901489393</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2678,23 +2600,23 @@
       </c>
       <c r="D32" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11117.997812908072</v>
+        <v>12828.45901489393</v>
       </c>
       <c r="E32" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F32" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>90.126671372796267</v>
+        <v>103.99231312245725</v>
       </c>
       <c r="G32" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>50.957489975828679</v>
+        <v>58.797103818263871</v>
       </c>
       <c r="H32" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11027.871141535277</v>
+        <v>12724.466701771475</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2708,23 +2630,23 @@
       </c>
       <c r="D33" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11027.871141535277</v>
+        <v>12724.466701771475</v>
       </c>
       <c r="E33" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F33" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>90.53975194992158</v>
+        <v>104.46894455760184</v>
       </c>
       <c r="G33" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>50.544409398703365</v>
+        <v>58.320472383119267</v>
       </c>
       <c r="H33" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10937.331389585357</v>
+        <v>12619.997757213872</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2738,23 +2660,23 @@
       </c>
       <c r="D34" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10937.331389585357</v>
+        <v>12619.997757213872</v>
       </c>
       <c r="E34" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F34" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>90.954725813025405</v>
+        <v>104.94776055349085</v>
       </c>
       <c r="G34" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>50.129435535599562</v>
+        <v>57.841656387230273</v>
       </c>
       <c r="H34" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10846.376663772331</v>
+        <v>12515.049996660382</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2768,23 +2690,23 @@
       </c>
       <c r="D35" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10846.376663772331</v>
+        <v>12515.049996660382</v>
       </c>
       <c r="E35" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F35" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>91.371601639668427</v>
+        <v>105.42877112269434</v>
       </c>
       <c r="G35" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>49.712559708956533</v>
+        <v>57.360645818026775</v>
       </c>
       <c r="H35" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10755.005062132665</v>
+        <v>12409.621225537689</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2798,23 +2720,23 @@
       </c>
       <c r="D36" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10755.005062132665</v>
+        <v>12409.621225537689</v>
       </c>
       <c r="E36" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F36" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>91.790388147183563</v>
+        <v>105.91198632367336</v>
       </c>
       <c r="G36" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>49.29377320144139</v>
+        <v>56.877430617047764</v>
       </c>
       <c r="H36" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10663.21467398548</v>
+        <v>12303.709239214015</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2828,23 +2750,23 @@
       </c>
       <c r="D37" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10663.21467398548</v>
+        <v>12303.709239214015</v>
       </c>
       <c r="E37" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F37" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>92.211094092858161</v>
+        <v>106.3974162609902</v>
       </c>
       <c r="G37" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>48.873067255766799</v>
+        <v>56.39200067973092</v>
       </c>
       <c r="H37" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10571.003579892622</v>
+        <v>12197.311822953023</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2858,23 +2780,23 @@
       </c>
       <c r="D38" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10571.003579892622</v>
+        <v>12197.311822953023</v>
       </c>
       <c r="E38" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F38" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>92.63372827411709</v>
+        <v>106.88507108551973</v>
       </c>
       <c r="G38" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>48.450433074507856</v>
+        <v>55.904345855201377</v>
       </c>
       <c r="H38" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10478.369851618503</v>
+        <v>12090.426751867504</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2888,23 +2810,23 @@
       </c>
       <c r="D39" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10478.369851618503</v>
+        <v>12090.426751867504</v>
       </c>
       <c r="E39" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F39" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>93.058299528706797</v>
+        <v>107.37496099466171</v>
       </c>
       <c r="G39" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>48.025861819918156</v>
+        <v>55.414455946059412</v>
       </c>
       <c r="H39" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10385.311552089797</v>
+        <v>11983.051790872843</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2918,23 +2840,23 @@
       </c>
       <c r="D40" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10385.311552089797</v>
+        <v>11983.051790872843</v>
       </c>
       <c r="E40" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F40" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>93.484816734880042</v>
+        <v>107.86709623255392</v>
       </c>
       <c r="G40" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>47.599344613744911</v>
+        <v>54.922320708167213</v>
       </c>
       <c r="H40" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10291.826735354918</v>
+        <v>11875.184694640291</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2948,23 +2870,23 @@
       </c>
       <c r="D41" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10291.826735354918</v>
+        <v>11875.184694640291</v>
       </c>
       <c r="E41" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F41" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>93.91328881158158</v>
+        <v>108.36148709028645</v>
       </c>
       <c r="G41" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>47.170872537043387</v>
+        <v>54.42792985043468</v>
       </c>
       <c r="H41" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10197.913446543334</v>
+        <v>11766.823207550002</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -2978,23 +2900,23 @@
       </c>
       <c r="D42" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10197.913446543334</v>
+        <v>11766.823207550002</v>
       </c>
       <c r="E42" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F42" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>94.343724718634661</v>
+        <v>108.85814390611692</v>
       </c>
       <c r="G42" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>46.740436629990299</v>
+        <v>53.931273034604189</v>
       </c>
       <c r="H42" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10103.569721824697</v>
+        <v>11657.965063643878</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3008,23 +2930,23 @@
       </c>
       <c r="D43" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10103.569721824697</v>
+        <v>11657.965063643878</v>
       </c>
       <c r="E43" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F43" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>94.776133456928392</v>
+        <v>109.35707706568662</v>
       </c>
       <c r="G43" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>46.308027891696554</v>
+        <v>53.432339875034494</v>
       </c>
       <c r="H43" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10008.793588367767</v>
+        <v>11548.607986578194</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3038,23 +2960,23 @@
       </c>
       <c r="D44" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10008.793588367767</v>
+        <v>11548.607986578194</v>
       </c>
       <c r="E44" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F44" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>95.210524068605991</v>
+        <v>109.85829700223768</v>
       </c>
       <c r="G44" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>45.873637280018968</v>
+        <v>52.93111993848342</v>
       </c>
       <c r="H44" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9913.5830642991641</v>
+        <v>11438.749689575958</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3068,23 +2990,23 @@
       </c>
       <c r="D45" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9913.5830642991641</v>
+        <v>11438.749689575958</v>
       </c>
       <c r="E45" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F45" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>95.646905637253766</v>
+        <v>110.36181419683128</v>
       </c>
       <c r="G45" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>45.437255711371193</v>
+        <v>52.427602743889842</v>
       </c>
       <c r="H45" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9817.9361586619088</v>
+        <v>11328.387875379127</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3098,23 +3020,23 @@
       </c>
       <c r="D46" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9817.9361586619088</v>
+        <v>11328.387875379127</v>
       </c>
       <c r="E46" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F46" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>96.08528728809118</v>
+        <v>110.86763917856676</v>
       </c>
       <c r="G46" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>44.99887406053378</v>
+        <v>51.921777762154363</v>
       </c>
       <c r="H46" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9721.8508713738156</v>
+        <v>11217.520236200555</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3128,23 +3050,23 @@
       </c>
       <c r="D47" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9721.8508713738156</v>
+        <v>11217.520236200555</v>
       </c>
       <c r="E47" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F47" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>96.525678188161592</v>
+        <v>111.37578252480183</v>
       </c>
       <c r="G47" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>44.558483160463361</v>
+        <v>51.413634415919269</v>
       </c>
       <c r="H47" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9625.3251931856539</v>
+        <v>11106.144453675755</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3158,23 +3080,23 @@
       </c>
       <c r="D48" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9625.3251931856539</v>
+        <v>11106.144453675755</v>
       </c>
       <c r="E48" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F48" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>96.968087546523989</v>
+        <v>111.88625486137386</v>
       </c>
       <c r="G48" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>44.116073802100956</v>
+        <v>50.903162079347261</v>
       </c>
       <c r="H48" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9528.3571056391338</v>
+        <v>10994.258198814383</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3188,23 +3110,23 @@
       </c>
       <c r="D49" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9528.3571056391338</v>
+        <v>10994.258198814383</v>
       </c>
       <c r="E49" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F49" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>97.412524614445573</v>
+        <v>112.39906686282183</v>
       </c>
       <c r="G49" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>43.671636734179387</v>
+        <v>50.390350077899299</v>
       </c>
       <c r="H49" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9430.9445810246889</v>
+        <v>10881.859131951564</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3218,23 +3140,23 @@
       </c>
       <c r="D50" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9430.9445810246889</v>
+        <v>10881.859131951564</v>
       </c>
       <c r="E50" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F50" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>97.858998685595111</v>
+        <v>112.91422925260974</v>
       </c>
       <c r="G50" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>43.225162663029842</v>
+        <v>49.87518768811136</v>
       </c>
       <c r="H50" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9333.0855823390921</v>
+        <v>10768.944902698953</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3248,23 +3170,23 @@
       </c>
       <c r="D51" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9333.0855823390921</v>
+        <v>10768.944902698953</v>
       </c>
       <c r="E51" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F51" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>98.307519096237442</v>
+        <v>113.43175280335089</v>
       </c>
       <c r="G51" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>42.776642252387532</v>
+        <v>49.357664137370236</v>
       </c>
       <c r="H51" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9234.7780632428548</v>
+        <v>10655.513149895598</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3278,23 +3200,23 @@
       </c>
       <c r="D52" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9234.7780632428548</v>
+        <v>10655.513149895598</v>
       </c>
       <c r="E52" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F52" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>98.758095225428519</v>
+        <v>113.95164833703291</v>
       </c>
       <c r="G52" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>42.326066123196441</v>
+        <v>48.837768603688197</v>
       </c>
       <c r="H52" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9136.0199680174228</v>
+        <v>10541.561501558564</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3308,23 +3230,23 @@
       </c>
       <c r="D53" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9136.0199680174228</v>
+        <v>10541.561501558564</v>
       </c>
       <c r="E53" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F53" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>99.210736495211734</v>
+        <v>114.47392672524431</v>
       </c>
       <c r="G53" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>41.873424853413226</v>
+        <v>48.315490215476807</v>
       </c>
       <c r="H53" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9036.8092315222166</v>
+        <v>10427.087574833326</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3338,23 +3260,23 @@
       </c>
       <c r="D54" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9036.8092315222166</v>
+        <v>10427.087574833326</v>
       </c>
       <c r="E54" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F54" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>99.665452370814776</v>
+        <v>114.99859888940166</v>
       </c>
       <c r="G54" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>41.418708977810176</v>
+        <v>47.790818051319434</v>
       </c>
       <c r="H54" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8937.1437791513999</v>
+        <v>10312.088975943923</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3368,23 +3290,23 @@
       </c>
       <c r="D55" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8937.1437791513999</v>
+        <v>10312.088975943923</v>
       </c>
       <c r="E55" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F55" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>100.1222523608477</v>
+        <v>115.52567580097812</v>
       </c>
       <c r="G55" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>40.961908987777278</v>
+        <v>47.263741139743018</v>
       </c>
       <c r="H55" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8837.0215267905478</v>
+        <v>10196.563300142941</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3398,23 +3320,23 @@
       </c>
       <c r="D56" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8837.0215267905478</v>
+        <v>10196.563300142941</v>
       </c>
       <c r="E56" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F56" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>100.58114601750157</v>
+        <v>116.05516848173258</v>
       </c>
       <c r="G56" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>40.503015331123386</v>
+        <v>46.734248458988532</v>
       </c>
       <c r="H56" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8736.4403807730523</v>
+        <v>10080.508131661214</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3428,23 +3350,23 @@
       </c>
       <c r="D57" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8736.4403807730523</v>
+        <v>10080.508131661214</v>
       </c>
       <c r="E57" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F57" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>101.04214293674845</v>
+        <v>116.58708800394054</v>
       </c>
       <c r="G57" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>40.042018411876505</v>
+        <v>46.202328936780589</v>
       </c>
       <c r="H57" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8635.3982378363016</v>
+        <v>9963.9210436572703</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3458,23 +3380,23 @@
       </c>
       <c r="D58" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8635.3982378363016</v>
+        <v>9963.9210436572703</v>
       </c>
       <c r="E58" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F58" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>101.50525275854189</v>
+        <v>117.12144549062526</v>
       </c>
       <c r="G58" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>39.578908590083081</v>
+        <v>45.667971450095862</v>
       </c>
       <c r="H58" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8533.8929850777567</v>
+        <v>9846.7995981666409</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3488,23 +3410,23 @@
       </c>
       <c r="D59" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8533.8929850777567</v>
+        <v>9846.7995981666409</v>
       </c>
       <c r="E59" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F59" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>101.97048516701854</v>
+        <v>117.65825211579062</v>
       </c>
       <c r="G59" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>39.113676181606429</v>
+        <v>45.131164824930494</v>
       </c>
       <c r="H59" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8431.9224999107391</v>
+        <v>9729.1413460508538</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3518,23 +3440,23 @@
       </c>
       <c r="D60" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8431.9224999107391</v>
+        <v>9729.1413460508538</v>
       </c>
       <c r="E60" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F60" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>102.43784989070069</v>
+        <v>118.19751910465466</v>
       </c>
       <c r="G60" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>38.646311457924256</v>
+        <v>44.591897836066458</v>
       </c>
       <c r="H60" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8329.4846500200365</v>
+        <v>9610.9438269461953</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3548,23 +3470,23 @@
       </c>
       <c r="D61" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8329.4846500200365</v>
+        <v>9610.9438269461953</v>
       </c>
       <c r="E61" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F61" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>102.90735670269976</v>
+        <v>118.73925773388433</v>
       </c>
       <c r="G61" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>38.176804645925209</v>
+        <v>44.050159206836781</v>
       </c>
       <c r="H61" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8226.5772933173375</v>
+        <v>9492.204569212312</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3578,23 +3500,23 @@
       </c>
       <c r="D62" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8226.5772933173375</v>
+        <v>9492.204569212312</v>
       </c>
       <c r="E62" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F62" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>103.37901542092045</v>
+        <v>119.28347933183129</v>
       </c>
       <c r="G62" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>37.7051459277045</v>
+        <v>43.505937608889816</v>
       </c>
       <c r="H62" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8123.1982778964175</v>
+        <v>9372.9210898804777</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3608,23 +3530,23 @@
       </c>
       <c r="D63" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8123.1982778964175</v>
+        <v>9372.9210898804777</v>
       </c>
       <c r="E63" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F63" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>103.85283590826634</v>
+        <v>119.83019527876885</v>
       </c>
       <c r="G63" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>37.231325440358624</v>
+        <v>42.959221661952256</v>
       </c>
       <c r="H63" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8019.3454419881491</v>
+        <v>9253.090894601708</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3638,23 +3560,23 @@
       </c>
       <c r="D64" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8019.3454419881491</v>
+        <v>9253.090894601708</v>
       </c>
       <c r="E64" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F64" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>104.32882807284589</v>
+        <v>120.37941700712987</v>
       </c>
       <c r="G64" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>36.755333275779066</v>
+        <v>42.40999993359123</v>
       </c>
       <c r="H64" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>7915.0166139153062</v>
+        <v>9132.7114775945811</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3668,23 +3590,23 @@
       </c>
       <c r="D65" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>7915.0166139153062</v>
+        <v>9132.7114775945811</v>
       </c>
       <c r="E65" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F65" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>104.80700186817977</v>
+        <v>120.9311560017459</v>
       </c>
       <c r="G65" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>36.277159480445185</v>
+        <v>41.858260938975221</v>
       </c>
       <c r="H65" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>7810.2096120471251</v>
+        <v>9011.7803215928361</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3698,23 +3620,23 @@
       </c>
       <c r="D66" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>7810.2096120471251</v>
+        <v>9011.7803215928361</v>
       </c>
       <c r="E66" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F66" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>105.28736729340892</v>
+        <v>121.48542380008722</v>
       </c>
       <c r="G66" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>35.796794055216033</v>
+        <v>41.303993140633885</v>
       </c>
       <c r="H66" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>7704.9222447537159</v>
+        <v>8890.2948977927463</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3728,23 +3650,23 @@
       </c>
       <c r="D67" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>7704.9222447537159</v>
+        <v>8890.2948977927463</v>
       </c>
       <c r="E67" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F67" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>105.76993439350372</v>
+        <v>122.0422319925043</v>
       </c>
       <c r="G67" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>35.314226955121242</v>
+        <v>40.74718494821682</v>
       </c>
       <c r="H67" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>7599.1523103602103</v>
+        <v>8768.2526658002444</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3758,23 +3680,23 @@
       </c>
       <c r="D68" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>7599.1523103602103</v>
+        <v>8768.2526658002444</v>
       </c>
       <c r="E68" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F68" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>106.25471325947393</v>
+        <v>122.60159222246993</v>
       </c>
       <c r="G68" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>34.829448089151022</v>
+        <v>40.187824718251179</v>
       </c>
       <c r="H68" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>7492.8975971007349</v>
+        <v>8645.6510735777738</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3788,23 +3710,23 @@
       </c>
       <c r="D69" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>7492.8975971007349</v>
+        <v>8645.6510735777738</v>
       </c>
       <c r="E69" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F69" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>106.74171402857985</v>
+        <v>123.16351618682292</v>
       </c>
       <c r="G69" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>34.342447320045096</v>
+        <v>39.625900753898186</v>
       </c>
       <c r="H69" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>7386.1558830721569</v>
+        <v>8522.4875573909503</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3818,23 +3740,23 @@
       </c>
       <c r="D70" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>7386.1558830721569</v>
+        <v>8522.4875573909503</v>
       </c>
       <c r="E70" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F70" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>107.23094688454418</v>
+        <v>123.72801563601251</v>
       </c>
       <c r="G70" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>33.853214464080772</v>
+        <v>39.061401304708582</v>
       </c>
       <c r="H70" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>7278.92493618761</v>
+        <v>8398.7595417549346</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3848,23 +3770,23 @@
       </c>
       <c r="D71" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>7278.92493618761</v>
+        <v>8398.7595417549346</v>
       </c>
       <c r="E71" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F71" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>107.72242205776502</v>
+        <v>124.29510237434424</v>
       </c>
       <c r="G71" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>33.361739290859944</v>
+        <v>38.494314566376858</v>
       </c>
       <c r="H71" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>7171.2025141298491</v>
+        <v>8274.4644393805938</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3878,23 +3800,23 @@
       </c>
       <c r="D72" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>7171.2025141298491</v>
+        <v>8274.4644393805938</v>
       </c>
       <c r="E72" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F72" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>108.21614982552977</v>
+        <v>124.86478826022666</v>
       </c>
       <c r="G72" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>32.868011523095177</v>
+        <v>37.924628680494436</v>
       </c>
       <c r="H72" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>7062.9863643043191</v>
+        <v>8149.5996511203666</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3908,23 +3830,23 @@
       </c>
       <c r="D73" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>7062.9863643043191</v>
+        <v>8149.5996511203666</v>
       </c>
       <c r="E73" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F73" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>108.71214051223012</v>
+        <v>125.43708520641938</v>
       </c>
       <c r="G73" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>32.372020836394839</v>
+        <v>37.352331734301735</v>
       </c>
       <c r="H73" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>6954.2742237920847</v>
+        <v>8024.1625659139427</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3938,23 +3860,23 @@
       </c>
       <c r="D74" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>6954.2742237920847</v>
+        <v>8024.1625659139427</v>
       </c>
       <c r="E74" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F74" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>109.21040448957784</v>
+        <v>126.01200518028213</v>
       </c>
       <c r="G74" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>31.873756859047116</v>
+        <v>36.77741176043898</v>
       </c>
       <c r="H74" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>6845.0638193025061</v>
+        <v>7898.1505607336585</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3968,23 +3890,23 @@
       </c>
       <c r="D75" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>6845.0638193025061</v>
+        <v>7898.1505607336585</v>
       </c>
       <c r="E75" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F75" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>109.71095217682173</v>
+        <v>126.58956020402508</v>
       </c>
       <c r="G75" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>31.373209171803214</v>
+        <v>36.19985673669602</v>
       </c>
       <c r="H75" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>6735.3528671256845</v>
+        <v>7771.5610005296348</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -3998,23 +3920,23 @@
       </c>
       <c r="D76" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>6735.3528671256845</v>
+        <v>7771.5610005296348</v>
       </c>
       <c r="E76" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F76" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>110.2137940409655</v>
+        <v>127.1697623549602</v>
       </c>
       <c r="G76" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>30.870367307659453</v>
+        <v>35.619654585760912</v>
       </c>
       <c r="H76" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>6625.1390730847197</v>
+        <v>7644.3912381746723</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4028,23 +3950,23 @@
       </c>
       <c r="D77" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>6625.1390730847197</v>
+        <v>7644.3912381746723</v>
       </c>
       <c r="E77" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F77" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>110.7189405969866</v>
+        <v>127.75262376575375</v>
       </c>
       <c r="G77" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>30.365220751638361</v>
+        <v>35.036793174967343</v>
       </c>
       <c r="H77" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>6514.4201324877322</v>
+        <v>7516.6386144089211</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4058,23 +3980,23 @@
       </c>
       <c r="D78" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>6514.4201324877322</v>
+        <v>7516.6386144089211</v>
       </c>
       <c r="E78" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F78" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>111.22640240805612</v>
+        <v>128.33815662468012</v>
       </c>
       <c r="G78" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>29.857758940568839</v>
+        <v>34.451260316040972</v>
       </c>
       <c r="H78" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>6403.1937300796726</v>
+        <v>7388.3004577842348</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4088,23 +4010,23 @@
       </c>
       <c r="D79" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>6403.1937300796726</v>
+        <v>7388.3004577842348</v>
       </c>
       <c r="E79" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F79" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>111.7361900857597</v>
+        <v>128.92637317587659</v>
       </c>
       <c r="G79" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>29.347971262865251</v>
+        <v>33.86304376484452</v>
       </c>
       <c r="H79" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>6291.4575399939094</v>
+        <v>7259.3740846083565</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4118,23 +4040,23 @@
       </c>
       <c r="D80" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>6291.4575399939094</v>
+        <v>7259.3740846083565</v>
       </c>
       <c r="E80" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F80" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>112.24831429031944</v>
+        <v>129.51728571959936</v>
       </c>
       <c r="G80" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>28.835847058305514</v>
+        <v>33.272131221121754</v>
       </c>
       <c r="H80" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>6179.2092257035965</v>
+        <v>7129.8567988887626</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4148,23 +4070,23 @@
       </c>
       <c r="D81" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>6179.2092257035965</v>
+        <v>7129.8567988887626</v>
       </c>
       <c r="E81" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F81" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>112.76278573081673</v>
+        <v>130.11090661248085</v>
       </c>
       <c r="G81" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>28.321375617808219</v>
+        <v>32.67851032824025</v>
       </c>
       <c r="H81" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>6066.4464399727785</v>
+        <v>6999.7458922762835</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4178,23 +4100,23 @@
       </c>
       <c r="D82" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>6066.4464399727785</v>
+        <v>6999.7458922762835</v>
       </c>
       <c r="E82" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F82" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>113.27961516541632</v>
+        <v>130.70724826778806</v>
       </c>
       <c r="G82" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>27.80454618320864</v>
+        <v>32.082168672933051</v>
       </c>
       <c r="H82" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>5953.1668248073602</v>
+        <v>6869.0386440084931</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4208,23 +4130,23 @@
       </c>
       <c r="D83" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>5953.1668248073602</v>
+        <v>6869.0386440084931</v>
       </c>
       <c r="E83" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F83" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>113.79881340159115</v>
+        <v>131.30632315568209</v>
       </c>
       <c r="G83" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>27.28534794703382</v>
+        <v>31.483093785039028</v>
       </c>
       <c r="H83" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>5839.3680114057697</v>
+        <v>6737.7323208528123</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4238,23 +4160,23 @@
       </c>
       <c r="D84" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>5839.3680114057697</v>
+        <v>6737.7323208528123</v>
       </c>
       <c r="E84" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F84" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>114.32039129634843</v>
+        <v>131.90814380347896</v>
       </c>
       <c r="G84" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>26.763770052276527</v>
+        <v>30.881273137242147</v>
       </c>
       <c r="H84" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>5725.0476201094225</v>
+        <v>6605.8241770493314</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4268,23 +4190,23 @@
       </c>
       <c r="D85" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>5725.0476201094225</v>
+        <v>6605.8241770493314</v>
       </c>
       <c r="E85" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F85" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>114.8443597564567</v>
+        <v>132.51272279591157</v>
       </c>
       <c r="G85" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>26.239801592168263</v>
+        <v>30.276694144809532</v>
       </c>
       <c r="H85" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>5610.203260352966</v>
+        <v>6473.3114542534204</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4298,23 +4220,23 @@
       </c>
       <c r="D86" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>5610.203260352966</v>
+        <v>6473.3114542534204</v>
       </c>
       <c r="E86" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F86" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>115.3707297386738</v>
+        <v>133.12007277539283</v>
       </c>
       <c r="G86" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>25.713431609951169</v>
+        <v>29.669344165328273</v>
       </c>
       <c r="H86" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>5494.8325306142906</v>
+        <v>6340.1913814780237</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4328,23 +4250,23 @@
       </c>
       <c r="D87" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>5494.8325306142906</v>
+        <v>6340.1913814780237</v>
       </c>
       <c r="E87" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F87" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>115.89951224997604</v>
+        <v>133.73020644228006</v>
       </c>
       <c r="G87" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>25.184649098648912</v>
+        <v>29.059210498441054</v>
       </c>
       <c r="H87" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>5378.9330183643142</v>
+        <v>6206.4611750357453</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4358,23 +4280,23 @@
       </c>
       <c r="D88" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>5378.9330183643142</v>
+        <v>6206.4611750357453</v>
       </c>
       <c r="E88" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F88" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>116.43071834778843</v>
+        <v>134.34313655514052</v>
       </c>
       <c r="G88" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>24.653443000836525</v>
+        <v>28.446280385580607</v>
       </c>
       <c r="H88" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>5262.5023000165293</v>
+        <v>6072.1180384806121</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4388,23 +4310,23 @@
       </c>
       <c r="D89" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>5262.5023000165293</v>
+        <v>6072.1180384806121</v>
       </c>
       <c r="E89" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F89" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>116.96435914021579</v>
+        <v>134.95887593101824</v>
       </c>
       <c r="G89" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>24.119802208409158</v>
+        <v>27.830541009702877</v>
       </c>
       <c r="H89" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>5145.537940876311</v>
+        <v>5937.1591625495876</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4418,23 +4340,23 @@
       </c>
       <c r="D90" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>5145.537940876311</v>
+        <v>5937.1591625495876</v>
       </c>
       <c r="E90" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F90" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>117.50044578627512</v>
+        <v>135.57743744570206</v>
       </c>
       <c r="G90" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>23.583715562349838</v>
+        <v>27.211979495019047</v>
       </c>
       <c r="H90" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>5028.0374950900314</v>
+        <v>5801.5817251038843</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4448,23 +4370,23 @@
       </c>
       <c r="D91" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>5028.0374950900314</v>
+        <v>5801.5817251038843</v>
       </c>
       <c r="E91" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F91" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>118.03898949612889</v>
+        <v>136.19883403399487</v>
       </c>
       <c r="G91" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>23.045171852496079</v>
+        <v>26.590582906726244</v>
       </c>
       <c r="H91" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>4909.9985055939032</v>
+        <v>5665.3828910698885</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4478,23 +4400,23 @@
       </c>
       <c r="D92" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>4909.9985055939032</v>
+        <v>5665.3828910698885</v>
       </c>
       <c r="E92" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F92" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>118.58000153131947</v>
+        <v>136.82307868998402</v>
       </c>
       <c r="G92" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>22.504159817305482</v>
+        <v>25.966338250737099</v>
       </c>
       <c r="H92" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>4791.4185040625889</v>
+        <v>5528.55981237991</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4508,23 +4430,23 @@
       </c>
       <c r="D93" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>4791.4185040625889</v>
+        <v>5528.55981237991</v>
       </c>
       <c r="E93" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F93" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>119.12349320500468</v>
+        <v>137.45018446731308</v>
       </c>
       <c r="G93" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>21.960668143620271</v>
+        <v>25.339232473408003</v>
       </c>
       <c r="H93" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>4672.2950108575806</v>
+        <v>5391.1096279125923</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4538,23 +4460,23 @@
       </c>
       <c r="D94" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>4672.2950108575806</v>
+        <v>5391.1096279125923</v>
       </c>
       <c r="E94" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F94" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>119.66947588219429</v>
+        <v>138.08016447945496</v>
       </c>
       <c r="G94" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>21.414685466430669</v>
+        <v>24.709252461266157</v>
       </c>
       <c r="H94" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>4552.6255349753865</v>
+        <v>5253.0294634331367</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4568,23 +4490,23 @@
       </c>
       <c r="D95" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>4552.6255349753865</v>
+        <v>5253.0294634331367</v>
       </c>
       <c r="E95" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F95" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>120.21796097998768</v>
+        <v>138.71303189998579</v>
       </c>
       <c r="G95" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>20.866200368637276</v>
+        <v>24.076385040735321</v>
       </c>
       <c r="H95" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>4432.4075739953932</v>
+        <v>5114.3164315331487</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4598,23 +4520,23 @@
       </c>
       <c r="D96" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>4432.4075739953932</v>
+        <v>5114.3164315331487</v>
       </c>
       <c r="E96" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F96" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>120.76895996781263</v>
+        <v>139.34879996286074</v>
       </c>
       <c r="G96" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>20.315201380812333</v>
+        <v>23.440616977860383</v>
       </c>
       <c r="H96" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>4311.6386140275845</v>
+        <v>4974.9676315702891</v>
       </c>
     </row>
     <row r="97" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4628,23 +4550,23 @@
       </c>
       <c r="D97" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>4311.6386140275845</v>
+        <v>4974.9676315702891</v>
       </c>
       <c r="E97" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F97" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>121.3224843676651</v>
+        <v>139.98748196269051</v>
       </c>
       <c r="G97" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>19.761676980959855</v>
+        <v>22.801934978030605</v>
       </c>
       <c r="H97" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>4190.3161296599192</v>
+        <v>4834.9801496075961</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4658,23 +4580,23 @@
       </c>
       <c r="D98" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>4190.3161296599192</v>
+        <v>4834.9801496075961</v>
       </c>
       <c r="E98" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F98" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>121.87854575435024</v>
+        <v>140.62909125501949</v>
       </c>
       <c r="G98" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>19.205615594274725</v>
+        <v>22.160325685701608</v>
       </c>
       <c r="H98" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>4068.4375839055701</v>
+        <v>4694.3510583525785</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4688,23 +4610,23 @@
       </c>
       <c r="D99" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>4068.4375839055701</v>
+        <v>4694.3510583525785</v>
       </c>
       <c r="E99" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F99" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>122.43715575572433</v>
+        <v>141.273641256605</v>
       </c>
       <c r="G99" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>18.647005592900623</v>
+        <v>21.5157756841161</v>
       </c>
       <c r="H99" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>3946.0004281498477</v>
+        <v>4553.0774170959739</v>
       </c>
     </row>
     <row r="100" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4718,23 +4640,23 @@
       </c>
       <c r="D100" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>3946.0004281498477</v>
+        <v>4553.0774170959739</v>
       </c>
       <c r="E100" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F100" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>122.99832605293807</v>
+        <v>141.92114544569779</v>
       </c>
       <c r="G100" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>18.085835295686884</v>
+        <v>20.868271495023329</v>
       </c>
       <c r="H100" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>3823.0021020969089</v>
+        <v>4411.1562716502776</v>
       </c>
     </row>
     <row r="101" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4748,23 +4670,23 @@
       </c>
       <c r="D101" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>3823.0021020969089</v>
+        <v>4411.1562716502776</v>
       </c>
       <c r="E101" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F101" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>123.5620683806807</v>
+        <v>142.57161736232388</v>
       </c>
       <c r="G101" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>17.52209296794425</v>
+        <v>20.217799578397209</v>
       </c>
       <c r="H101" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>3699.4400337162297</v>
+        <v>4268.5846542879517</v>
       </c>
     </row>
     <row r="102" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4778,23 +4700,23 @@
       </c>
       <c r="D102" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>3699.4400337162297</v>
+        <v>4268.5846542879517</v>
       </c>
       <c r="E102" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F102" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>124.12839452742548</v>
+        <v>143.22507060856788</v>
       </c>
       <c r="G102" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>16.955766821199461</v>
+        <v>19.564346332153224</v>
       </c>
       <c r="H102" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>3575.3116391888016</v>
+        <v>4125.3595836793829</v>
       </c>
     </row>
     <row r="103" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4808,23 +4730,23 @@
       </c>
       <c r="D103" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>3575.3116391888016</v>
+        <v>4125.3595836793829</v>
       </c>
       <c r="E103" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F103" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>124.69731633567619</v>
+        <v>143.88151884885716</v>
       </c>
       <c r="G103" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>16.386845012948765</v>
+        <v>18.907898091863959</v>
       </c>
       <c r="H103" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>3450.6143228531255</v>
+        <v>3981.4780648305277</v>
       </c>
     </row>
     <row r="104" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4838,23 +4760,23 @@
       </c>
       <c r="D104" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>3450.6143228531255</v>
+        <v>3981.4780648305277</v>
       </c>
       <c r="E104" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F104" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>125.26884570221472</v>
+        <v>144.54097581024777</v>
       </c>
       <c r="G104" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>15.815315646410248</v>
+        <v>18.248441130473363</v>
       </c>
       <c r="H104" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>3325.3454771509132</v>
+        <v>3836.9370890202808</v>
       </c>
     </row>
     <row r="105" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4868,23 +4790,23 @@
       </c>
       <c r="D105" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>3325.3454771509132</v>
+        <v>3836.9370890202808</v>
       </c>
       <c r="E105" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F105" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>125.84299457834987</v>
+        <v>145.20345528271139</v>
       </c>
       <c r="G105" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>15.241166770275097</v>
+        <v>17.58596165800973</v>
       </c>
       <c r="H105" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>3199.5024825725559</v>
+        <v>3691.7336337375637</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4898,23 +4820,23 @@
       </c>
       <c r="D106" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>3199.5024825725559</v>
+        <v>3691.7336337375637</v>
       </c>
       <c r="E106" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F106" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>126.4197749701673</v>
+        <v>145.8689711194238</v>
       </c>
       <c r="G106" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>14.66438637845766</v>
+        <v>16.920445821297299</v>
       </c>
       <c r="H106" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>3073.0827076023852</v>
+        <v>3545.8646626181362</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4928,23 +4850,23 @@
       </c>
       <c r="D107" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>3073.0827076023852</v>
+        <v>3545.8646626181362</v>
       </c>
       <c r="E107" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F107" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>126.99919893878055</v>
+        <v>146.53753723705449</v>
       </c>
       <c r="G107" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>14.084962409844392</v>
+        <v>16.251879703666607</v>
       </c>
       <c r="H107" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>2946.0835086636071</v>
+        <v>3399.3271253810817</v>
       </c>
     </row>
     <row r="108" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4958,23 +4880,23 @@
       </c>
       <c r="D108" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>2946.0835086636071</v>
+        <v>3399.3271253810817</v>
       </c>
       <c r="E108" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F108" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>127.5812786005833</v>
+        <v>147.20916761605767</v>
       </c>
       <c r="G108" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>13.50288274804165</v>
+        <v>15.580249324663441</v>
       </c>
       <c r="H108" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>2818.5022300630262</v>
+        <v>3252.1179577650291</v>
       </c>
     </row>
     <row r="109" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -4988,23 +4910,23 @@
       </c>
       <c r="D109" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>2818.5022300630262</v>
+        <v>3252.1179577650291</v>
       </c>
       <c r="E109" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F109" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>128.16602612750265</v>
+        <v>147.8838763009646</v>
       </c>
       <c r="G109" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>12.918135221122307</v>
+        <v>14.905540639756511</v>
       </c>
       <c r="H109" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>2690.3362039355234</v>
+        <v>3104.2340814640629</v>
       </c>
     </row>
     <row r="110" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5018,23 +4940,23 @@
       </c>
       <c r="D110" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>2690.3362039355234</v>
+        <v>3104.2340814640629</v>
       </c>
       <c r="E110" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F110" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>128.7534537472537</v>
+        <v>148.56167740067735</v>
       </c>
       <c r="G110" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>12.330707601371255</v>
+        <v>14.227739540043757</v>
       </c>
       <c r="H110" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>2561.5827501882632</v>
+        <v>2955.6724040633781</v>
       </c>
     </row>
     <row r="111" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5048,23 +4970,23 @@
       </c>
       <c r="D111" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>2561.5827501882632</v>
+        <v>2955.6724040633781</v>
       </c>
       <c r="E111" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F111" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>129.34357374359527</v>
+        <v>149.2425850887638</v>
       </c>
       <c r="G111" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>11.740587605029676</v>
+        <v>13.546831851957318</v>
       </c>
       <c r="H111" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>2432.2391764446693</v>
+        <v>2806.429818974615</v>
       </c>
     </row>
     <row r="112" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5078,23 +5000,23 @@
       </c>
       <c r="D112" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>2432.2391764446693</v>
+        <v>2806.429818974615</v>
       </c>
       <c r="E112" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F112" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>129.93639845658674</v>
+        <v>149.92661360375396</v>
       </c>
       <c r="G112" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>11.147762892038196</v>
+        <v>12.862803336967151</v>
       </c>
       <c r="H112" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>2302.3027779880867</v>
+        <v>2656.5032053708637</v>
       </c>
     </row>
     <row r="113" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5108,23 +5030,23 @@
       </c>
       <c r="D113" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>2302.3027779880867</v>
+        <v>2656.5032053708637</v>
       </c>
       <c r="E113" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F113" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>130.53194028284611</v>
+        <v>150.61377724943782</v>
       </c>
       <c r="G113" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>10.55222106577884</v>
+        <v>12.175639691283276</v>
       </c>
       <c r="H113" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>2171.7708377052404</v>
+        <v>2505.8894281214343</v>
       </c>
     </row>
     <row r="114" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5138,23 +5060,23 @@
       </c>
       <c r="D114" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>2171.7708377052404</v>
+        <v>2505.8894281214343</v>
       </c>
       <c r="E114" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F114" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>131.13021167580916</v>
+        <v>151.30409039516442</v>
       </c>
       <c r="G114" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>9.9539496728157957</v>
+        <v>11.485326545556688</v>
       </c>
       <c r="H114" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>2040.6406260294279</v>
+        <v>2354.5853377262611</v>
       </c>
     </row>
     <row r="115" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5168,23 +5090,23 @@
       </c>
       <c r="D115" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>2040.6406260294279</v>
+        <v>2354.5853377262611</v>
       </c>
       <c r="E115" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F115" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>131.73122514598995</v>
+        <v>151.99756747614225</v>
       </c>
       <c r="G115" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>9.3529362026350036</v>
+        <v>10.791849464578851</v>
       </c>
       <c r="H115" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>1908.9094008834436</v>
+        <v>2202.5877702501202</v>
       </c>
     </row>
     <row r="116" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5198,23 +5120,23 @@
       </c>
       <c r="D116" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>1908.9094008834436</v>
+        <v>2202.5877702501202</v>
       </c>
       <c r="E116" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F116" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>132.3349932612424</v>
+        <v>152.69422299374125</v>
       </c>
       <c r="G116" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>8.7491680873825484</v>
+        <v>10.095193946979863</v>
       </c>
       <c r="H116" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>1776.5744076221927</v>
+        <v>2049.8935472563753</v>
       </c>
     </row>
     <row r="117" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5228,23 +5150,23 @@
       </c>
       <c r="D117" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>1776.5744076221927</v>
+        <v>2049.8935472563753</v>
       </c>
       <c r="E117" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F117" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>132.94152864702309</v>
+        <v>153.3940715157959</v>
       </c>
       <c r="G117" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>8.1426327016018547</v>
+        <v>9.3953454249252175</v>
       </c>
       <c r="H117" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>1643.6328789751751</v>
+        <v>1896.4994757405839</v>
       </c>
     </row>
     <row r="118" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5258,23 +5180,23 @@
       </c>
       <c r="D118" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>1643.6328789751751</v>
+        <v>1896.4994757405839</v>
       </c>
       <c r="E118" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F118" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>133.55084398665531</v>
+        <v>154.09712767690996</v>
       </c>
       <c r="G118" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>7.5333173619696661</v>
+        <v>8.6922892638111531</v>
       </c>
       <c r="H118" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>1510.082034988518</v>
+        <v>1742.4023480636715</v>
       </c>
     </row>
     <row r="119" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5288,23 +5210,23 @@
       </c>
       <c r="D119" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>1510.082034988518</v>
+        <v>1742.4023480636715</v>
       </c>
       <c r="E119" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F119" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>134.16295202159412</v>
+        <v>154.80340617876246</v>
       </c>
       <c r="G119" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>6.9212093270308293</v>
+        <v>7.9860107619586502</v>
       </c>
       <c r="H119" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>1375.9190829669242</v>
+        <v>1587.5989418849094</v>
       </c>
     </row>
     <row r="120" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5318,23 +5240,23 @@
       </c>
       <c r="D120" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>1375.9190829669242</v>
+        <v>1587.5989418849094</v>
       </c>
       <c r="E120" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F120" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>134.77786555169311</v>
+        <v>155.51292179041513</v>
       </c>
       <c r="G120" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>6.306295796931856</v>
+        <v>7.2764951503059878</v>
       </c>
       <c r="H120" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>1241.1412174152319</v>
+        <v>1432.086020094499</v>
       </c>
     </row>
     <row r="121" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5348,23 +5270,23 @@
       </c>
       <c r="D121" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>1241.1412174152319</v>
+        <v>1432.086020094499</v>
       </c>
       <c r="E121" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F121" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>135.3955974354717</v>
+        <v>156.22568934862122</v>
       </c>
       <c r="G121" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>5.6885639131532617</v>
+        <v>6.5637275920999185</v>
       </c>
       <c r="H121" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>1105.7456199797562</v>
+        <v>1275.8603307458689</v>
       </c>
     </row>
     <row r="122" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5378,23 +5300,23 @@
       </c>
       <c r="D122" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>1105.7456199797562</v>
+        <v>1275.8603307458689</v>
       </c>
       <c r="E122" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F122" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>136.01616059038429</v>
+        <v>156.94172375813571</v>
       </c>
       <c r="G122" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>5.0680007582406832</v>
+        <v>5.8476931825854042</v>
       </c>
       <c r="H122" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>969.72945938937119</v>
+        <v>1118.9186069877323</v>
       </c>
     </row>
     <row r="123" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5408,23 +5330,23 @@
       </c>
       <c r="D123" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>969.72945938937119</v>
+        <v>1118.9186069877323</v>
       </c>
       <c r="E123" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F123" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>136.6395679930902</v>
+        <v>157.66103999202713</v>
       </c>
       <c r="G123" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>4.4445933555347557</v>
+        <v>5.1283769486939486</v>
       </c>
       <c r="H123" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>833.08989139627738</v>
+        <v>961.25756699570411</v>
       </c>
     </row>
     <row r="124" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5438,23 +5360,23 @@
       </c>
       <c r="D124" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>833.08989139627738</v>
+        <v>961.25756699570411</v>
       </c>
       <c r="E124" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F124" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>137.26583267972521</v>
+        <v>158.38365309199062</v>
       </c>
       <c r="G124" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>3.8183286688997589</v>
+        <v>4.4057638487304915</v>
       </c>
       <c r="H124" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>695.82405871655283</v>
+        <v>802.8739139037134</v>
       </c>
     </row>
     <row r="125" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5468,23 +5390,23 @@
       </c>
       <c r="D125" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>695.82405871655283</v>
+        <v>802.8739139037134</v>
       </c>
       <c r="E125" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F125" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>137.89496774617393</v>
+        <v>159.10957816866224</v>
       </c>
       <c r="G125" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>3.1891936024510184</v>
+        <v>3.6798387720588672</v>
       </c>
       <c r="H125" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>557.92909097038137</v>
+        <v>643.76433573504983</v>
       </c>
     </row>
     <row r="126" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5498,23 +5420,23 @@
       </c>
       <c r="D126" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>557.92909097038137</v>
+        <v>643.76433573504983</v>
       </c>
       <c r="E126" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F126" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>138.52698634834391</v>
+        <v>159.8388304019353</v>
       </c>
       <c r="G126" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>2.5571750002810543</v>
+        <v>2.9505865387858323</v>
       </c>
       <c r="H126" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>419.40210462203686</v>
+        <v>483.92550533311442</v>
       </c>
     </row>
     <row r="127" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5528,23 +5450,23 @@
       </c>
       <c r="D127" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>419.40210462203686</v>
+        <v>483.92550533311442</v>
       </c>
       <c r="E127" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F127" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>139.1619017024405</v>
+        <v>160.57142504127748</v>
       </c>
       <c r="G127" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>1.9222596461844779</v>
+        <v>2.2179918994436285</v>
       </c>
       <c r="H127" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>280.24020291959096</v>
+        <v>323.354080291836</v>
       </c>
     </row>
     <row r="128" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5558,23 +5480,23 @@
       </c>
       <c r="D128" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>280.24020291959096</v>
+        <v>323.354080291836</v>
       </c>
       <c r="E128" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F128" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>139.79972708524332</v>
+        <v>161.30737740604999</v>
       </c>
       <c r="G128" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>1.2844342633816255</v>
+        <v>1.4820395346711064</v>
       </c>
       <c r="H128" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>140.44047583435167</v>
+        <v>162.04670288578927</v>
       </c>
     </row>
     <row r="129" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -5588,23 +5510,23 @@
       </c>
       <c r="D129" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>140.44047583435167</v>
+        <v>162.04670288578927</v>
       </c>
       <c r="E129" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>141.08416134862495</v>
+        <v>162.78941694072111</v>
       </c>
       <c r="F129" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>140.44047583438402</v>
+        <v>162.04670288582776</v>
       </c>
       <c r="G129" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>0.6436855142409269</v>
+        <v>0.74271405489337727</v>
       </c>
       <c r="H129" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>-3.2741809263825417E-11</v>
+        <v>-4.0017766878008842E-11</v>
       </c>
     </row>
     <row r="130" spans="2:8" ht="20.149999999999999" customHeight="1">
@@ -12809,17 +12731,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C10:G369">
@@ -12914,60 +12836,13 @@
     <ignoredError sqref="H4:H7 B353 B10:B352 B354:B369 C10:C369 D10:D369 E10:E369 F10:F369 G10:G369 H10:H369" emptyCellReference="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId5" name="Button 2">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!standartwertSetzen">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>1206500</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13175,33 +13050,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F91CE3-C58C-4E76-9DA8-D93EEEA78136}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72EA4DC2-5468-46D3-9CB3-A7301676DD3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF676122-7EF5-4FD7-B672-08F0B8FC1D58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13219,4 +13086,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72EA4DC2-5468-46D3-9CB3-A7301676DD3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F91CE3-C58C-4E76-9DA8-D93EEEA78136}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Darlehensrechner.xlsx
+++ b/Darlehensrechner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\Arbeit\projekte\schulung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9050509-395D-4C29-9601-FC8D8A908557}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED96F83-8C44-4257-A8E1-27E92EADDE18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -774,17 +774,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1782,25 +1782,25 @@
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.78515625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
-    <col min="3" max="8" width="15.640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.78515625" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="1" customWidth="1"/>
+    <col min="3" max="8" width="15.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60.75" customHeight="1">
       <c r="A1" s="15"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="9.75" customHeight="1">
       <c r="B2" s="2"/>
@@ -1811,90 +1811,90 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="20.149999999999999" customHeight="1" thickBot="1">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3"/>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.149999999999999" customHeight="1" thickTop="1">
-      <c r="B4" s="18" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="3">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="E4"/>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="12">
         <f ca="1">IFERROR(IF(DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.149999999999999" customHeight="1">
-      <c r="B5" s="19" t="s">
+        <v>130.23153355257688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="4">
         <v>5.5E-2</v>
       </c>
       <c r="E5"/>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="13">
         <f ca="1">IFERROR(IF(DarlehenIstGut,DarlehensJahre*12,""), "")</f>
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20.149999999999999" customHeight="1">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="5">
         <v>10</v>
       </c>
       <c r="E6"/>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="14">
         <f ca="1">IFERROR(IF(DarlehenIstGut,DarlehensKostenGesamt-DarlehensBetrag,""), "")</f>
-        <v>4534.7300328865349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.149999999999999" customHeight="1">
-      <c r="B7" s="19" t="s">
+        <v>3627.7840263092257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="6">
         <f ca="1">TODAY()</f>
         <v>44150</v>
       </c>
       <c r="E7"/>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="14">
         <f ca="1">IFERROR(IF(DarlehenIstGut,MonatlicheZahlung*AnzahlZahlungen,""), "")</f>
-        <v>19534.730032886535</v>
+        <v>15627.784026309226</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
@@ -1929,7 +1929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20.149999999999999" customHeight="1">
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>1</v>
@@ -1940,26 +1940,26 @@
       </c>
       <c r="D10" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="E10" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F10" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>94.039416940721111</v>
+        <v>75.231533552576877</v>
       </c>
       <c r="G10" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>68.750000000000014</v>
+        <v>55</v>
       </c>
       <c r="H10" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>14905.960583059277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.149999999999999" customHeight="1">
+        <v>11924.768466447422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>2</v>
@@ -1970,26 +1970,26 @@
       </c>
       <c r="D11" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>14905.960583059277</v>
+        <v>11924.768466447422</v>
       </c>
       <c r="E11" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F11" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>94.470430935032738</v>
+        <v>75.576344748026202</v>
       </c>
       <c r="G11" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>68.318986005688373</v>
+        <v>54.65518880455069</v>
       </c>
       <c r="H11" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>14811.490152124245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.149999999999999" customHeight="1">
+        <v>11849.192121699396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>3</v>
@@ -2000,26 +2000,26 @@
       </c>
       <c r="D12" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>14811.490152124245</v>
+        <v>11849.192121699396</v>
       </c>
       <c r="E12" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F12" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>94.903420410151654</v>
+        <v>75.922736328121317</v>
       </c>
       <c r="G12" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>67.885996530569486</v>
+        <v>54.308797224455581</v>
       </c>
       <c r="H12" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>14716.586731714093</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.149999999999999" customHeight="1">
+        <v>11773.269385371274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>4</v>
@@ -2030,26 +2030,26 @@
       </c>
       <c r="D13" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>14716.586731714093</v>
+        <v>11773.269385371274</v>
       </c>
       <c r="E13" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F13" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>95.33839442036485</v>
+        <v>76.270715536291874</v>
       </c>
       <c r="G13" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>67.451022520356261</v>
+        <v>53.96081801628501</v>
       </c>
       <c r="H13" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>14621.248337293728</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.149999999999999" customHeight="1">
+        <v>11696.998669834984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>5</v>
@@ -2060,26 +2060,26 @@
       </c>
       <c r="D14" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>14621.248337293728</v>
+        <v>11696.998669834984</v>
       </c>
       <c r="E14" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F14" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>95.775362061458196</v>
+        <v>76.620289649166551</v>
       </c>
       <c r="G14" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>67.014054879262915</v>
+        <v>53.611243903410333</v>
       </c>
       <c r="H14" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>14525.472975232269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20.149999999999999" customHeight="1">
+        <v>11620.378380185815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>6</v>
@@ -2090,26 +2090,26 @@
       </c>
       <c r="D15" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>14525.472975232269</v>
+        <v>11620.378380185815</v>
       </c>
       <c r="E15" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F15" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>96.214332470906541</v>
+        <v>76.971465976725227</v>
       </c>
       <c r="G15" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>66.57508446981457</v>
+        <v>53.260067575851657</v>
       </c>
       <c r="H15" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>14429.258642761361</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20.149999999999999" customHeight="1">
+        <v>11543.40691420909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>7</v>
@@ -2120,26 +2120,26 @@
       </c>
       <c r="D16" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>14429.258642761361</v>
+        <v>11543.40691420909</v>
       </c>
       <c r="E16" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F16" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>96.65531482806486</v>
+        <v>77.324251862451874</v>
       </c>
       <c r="G16" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>66.134102112656265</v>
+        <v>52.907281690125004</v>
       </c>
       <c r="H16" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>14332.603327933301</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>11466.08266234664</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>8</v>
@@ -2150,26 +2150,26 @@
       </c>
       <c r="D17" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>14332.603327933301</v>
+        <v>11466.08266234664</v>
       </c>
       <c r="E17" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F17" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>97.098318354360146</v>
+        <v>77.678654683488119</v>
       </c>
       <c r="G17" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>65.691098586360965</v>
+        <v>52.552878869088765</v>
       </c>
       <c r="H17" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>14235.505009578939</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>11388.404007663152</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>9</v>
@@ -2180,26 +2180,26 @@
       </c>
       <c r="D18" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>14235.505009578939</v>
+        <v>11388.404007663152</v>
       </c>
       <c r="E18" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F18" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>97.54335231348432</v>
+        <v>78.034681850787436</v>
       </c>
       <c r="G18" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>65.246064627236805</v>
+        <v>52.196851701789448</v>
       </c>
       <c r="H18" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>14137.961657265456</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>11310.369325812364</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>10</v>
@@ -2210,26 +2210,26 @@
       </c>
       <c r="D19" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>14137.961657265456</v>
+        <v>11310.369325812364</v>
       </c>
       <c r="E19" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F19" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>97.990426011587772</v>
+        <v>78.392340809270209</v>
       </c>
       <c r="G19" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>64.798990929133339</v>
+        <v>51.839192743306668</v>
       </c>
       <c r="H19" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>14039.971231253865</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>11231.976985003092</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>11</v>
@@ -2240,26 +2240,26 @@
       </c>
       <c r="D20" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>14039.971231253865</v>
+        <v>11231.976985003092</v>
       </c>
       <c r="E20" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F20" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>98.439548797474231</v>
+        <v>78.751639037979373</v>
       </c>
       <c r="G20" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>64.349868143246894</v>
+        <v>51.479894514597511</v>
       </c>
       <c r="H20" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>13941.531682456391</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>11153.225345965113</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>12</v>
@@ -2270,26 +2270,26 @@
       </c>
       <c r="D21" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>13941.531682456391</v>
+        <v>11153.225345965113</v>
       </c>
       <c r="E21" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F21" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>98.890730062795981</v>
+        <v>79.112584050236791</v>
       </c>
       <c r="G21" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>63.898686877925144</v>
+        <v>51.118949502340108</v>
       </c>
       <c r="H21" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>13842.640952393598</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>11074.112761914877</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>13</v>
@@ -2300,26 +2300,26 @@
       </c>
       <c r="D22" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>13842.640952393598</v>
+        <v>11074.112761914877</v>
       </c>
       <c r="E22" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F22" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>99.343979242250455</v>
+        <v>79.47518339380035</v>
       </c>
       <c r="G22" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>63.445437698470649</v>
+        <v>50.75635015877652</v>
       </c>
       <c r="H22" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>13743.296973151346</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>10994.637578521077</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>14</v>
@@ -2330,26 +2330,26 @@
       </c>
       <c r="D23" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>13743.296973151346</v>
+        <v>10994.637578521077</v>
       </c>
       <c r="E23" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F23" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>99.799305813777437</v>
+        <v>79.83944465102195</v>
       </c>
       <c r="G23" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>62.990111126943667</v>
+        <v>50.392088901554935</v>
       </c>
       <c r="H23" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>13643.497667337568</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>10914.798133870054</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>15</v>
@@ -2360,26 +2360,26 @@
       </c>
       <c r="D24" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>13643.497667337568</v>
+        <v>10914.798133870054</v>
       </c>
       <c r="E24" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F24" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>100.25671929875725</v>
+        <v>80.205375439005792</v>
       </c>
       <c r="G24" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>62.53269764196385</v>
+        <v>50.026158113571078</v>
       </c>
       <c r="H24" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>13543.240948038812</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>10834.59275843105</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>16</v>
@@ -2390,26 +2390,26 @@
       </c>
       <c r="D25" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>13543.240948038812</v>
+        <v>10834.59275843105</v>
       </c>
       <c r="E25" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F25" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>100.71622926220988</v>
+        <v>80.572983409767886</v>
       </c>
       <c r="G25" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>62.073187678511225</v>
+        <v>49.65855014280897</v>
       </c>
       <c r="H25" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>13442.5247187766</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>10754.019775021279</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>17</v>
@@ -2420,26 +2420,26 @@
       </c>
       <c r="D26" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>13442.5247187766</v>
+        <v>10754.019775021279</v>
       </c>
       <c r="E26" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F26" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>101.17784531299503</v>
+        <v>80.94227625039602</v>
       </c>
       <c r="G26" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>61.6115716277261</v>
+        <v>49.289257302180872</v>
       </c>
       <c r="H26" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>13341.346873463604</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>10673.077498770883</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>18</v>
@@ -2450,26 +2450,26 @@
       </c>
       <c r="D27" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>13341.346873463604</v>
+        <v>10673.077498770883</v>
       </c>
       <c r="E27" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F27" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>101.64157710401291</v>
+        <v>81.313261683210314</v>
       </c>
       <c r="G27" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>61.147839836708201</v>
+        <v>48.918271869366556</v>
       </c>
       <c r="H27" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>13239.705296359589</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>10591.764237087671</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>19</v>
@@ -2480,26 +2480,26 @@
       </c>
       <c r="D28" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>13239.705296359589</v>
+        <v>10591.764237087671</v>
       </c>
       <c r="E28" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F28" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>102.1074343324063</v>
+        <v>81.685947465925025</v>
       </c>
       <c r="G28" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>60.681982608314819</v>
+        <v>48.545586086651852</v>
       </c>
       <c r="H28" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>13137.597862027187</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>10510.07828962175</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>20</v>
@@ -2510,26 +2510,26 @@
       </c>
       <c r="D29" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>13137.597862027187</v>
+        <v>10510.07828962175</v>
       </c>
       <c r="E29" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F29" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>102.57542673976316</v>
+        <v>82.060341391810525</v>
       </c>
       <c r="G29" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>60.213990200957952</v>
+        <v>48.171192160766353</v>
       </c>
       <c r="H29" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>13035.022435287423</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>10428.017948229937</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>21</v>
@@ -2540,26 +2540,26 @@
       </c>
       <c r="D30" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>13035.022435287423</v>
+        <v>10428.017948229937</v>
       </c>
       <c r="E30" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F30" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>103.04556411232042</v>
+        <v>82.436451289856322</v>
       </c>
       <c r="G30" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>59.743852828400698</v>
+        <v>47.795082262720555</v>
       </c>
       <c r="H30" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12931.9768711751</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>10345.58149694008</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>22</v>
@@ -2570,26 +2570,26 @@
       </c>
       <c r="D31" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12931.9768711751</v>
+        <v>10345.58149694008</v>
       </c>
       <c r="E31" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F31" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>103.51785628116855</v>
+        <v>82.814285024934819</v>
       </c>
       <c r="G31" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>59.27156065955257</v>
+        <v>47.417248527642052</v>
       </c>
       <c r="H31" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12828.45901489393</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>10262.767211915143</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>23</v>
@@ -2600,26 +2600,26 @@
       </c>
       <c r="D32" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12828.45901489393</v>
+        <v>10262.767211915143</v>
       </c>
       <c r="E32" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F32" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>103.99231312245725</v>
+        <v>83.193850497965798</v>
       </c>
       <c r="G32" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>58.797103818263871</v>
+        <v>47.037683054611087</v>
       </c>
       <c r="H32" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12724.466701771475</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>10179.573361417179</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>24</v>
@@ -2630,26 +2630,26 @@
       </c>
       <c r="D33" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12724.466701771475</v>
+        <v>10179.573361417179</v>
       </c>
       <c r="E33" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F33" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>104.46894455760184</v>
+        <v>83.575155646081456</v>
       </c>
       <c r="G33" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>58.320472383119267</v>
+        <v>46.656377906495408</v>
       </c>
       <c r="H33" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12619.997757213872</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>10095.998205771099</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>25</v>
@@ -2660,26 +2660,26 @@
       </c>
       <c r="D34" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12619.997757213872</v>
+        <v>10095.998205771099</v>
       </c>
       <c r="E34" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F34" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>104.94776055349085</v>
+        <v>83.958208442792682</v>
       </c>
       <c r="G34" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>57.841656387230273</v>
+        <v>46.27332510978421</v>
       </c>
       <c r="H34" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12515.049996660382</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>10012.039997328307</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>26</v>
@@ -2690,26 +2690,26 @@
       </c>
       <c r="D35" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12515.049996660382</v>
+        <v>10012.039997328307</v>
       </c>
       <c r="E35" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F35" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>105.42877112269434</v>
+        <v>84.343016898155483</v>
       </c>
       <c r="G35" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>57.360645818026775</v>
+        <v>45.888516654421416</v>
       </c>
       <c r="H35" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12409.621225537689</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>9927.6969804301516</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>27</v>
@@ -2720,26 +2720,26 @@
       </c>
       <c r="D36" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12409.621225537689</v>
+        <v>9927.6969804301516</v>
       </c>
       <c r="E36" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F36" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>105.91198632367336</v>
+        <v>84.729589058938686</v>
       </c>
       <c r="G36" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>56.877430617047764</v>
+        <v>45.501944493638206</v>
       </c>
       <c r="H36" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12303.709239214015</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>9842.9673913712122</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>28</v>
@@ -2750,26 +2750,26 @@
       </c>
       <c r="D37" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12303.709239214015</v>
+        <v>9842.9673913712122</v>
       </c>
       <c r="E37" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F37" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>106.3974162609902</v>
+        <v>85.11793300879215</v>
       </c>
       <c r="G37" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>56.39200067973092</v>
+        <v>45.113600543784734</v>
       </c>
       <c r="H37" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12197.311822953023</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>9757.8494583624197</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>29</v>
@@ -2780,26 +2780,26 @@
       </c>
       <c r="D38" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12197.311822953023</v>
+        <v>9757.8494583624197</v>
       </c>
       <c r="E38" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F38" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>106.88507108551973</v>
+        <v>85.508056868415778</v>
       </c>
       <c r="G38" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>55.904345855201377</v>
+        <v>44.723476684161099</v>
       </c>
       <c r="H38" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>12090.426751867504</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>9672.3414014940026</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>30</v>
@@ -2810,26 +2810,26 @@
       </c>
       <c r="D39" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>12090.426751867504</v>
+        <v>9672.3414014940026</v>
       </c>
       <c r="E39" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F39" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>107.37496099466171</v>
+        <v>85.89996879572935</v>
       </c>
       <c r="G39" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>55.414455946059412</v>
+        <v>44.331564756847527</v>
       </c>
       <c r="H39" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11983.051790872843</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>9586.4414326982733</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>31</v>
@@ -2840,26 +2840,26 @@
       </c>
       <c r="D40" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11983.051790872843</v>
+        <v>9586.4414326982733</v>
       </c>
       <c r="E40" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F40" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>107.86709623255392</v>
+        <v>86.293676986043124</v>
       </c>
       <c r="G40" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>54.922320708167213</v>
+        <v>43.937856566533767</v>
       </c>
       <c r="H40" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11875.184694640291</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>9500.1477557122307</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>32</v>
@@ -2870,26 +2870,26 @@
       </c>
       <c r="D41" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11875.184694640291</v>
+        <v>9500.1477557122307</v>
       </c>
       <c r="E41" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F41" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>108.36148709028645</v>
+        <v>86.689189672229134</v>
       </c>
       <c r="G41" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>54.42792985043468</v>
+        <v>43.542343880347744</v>
       </c>
       <c r="H41" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11766.823207550002</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>9413.4585660400007</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>33</v>
@@ -2900,26 +2900,26 @@
       </c>
       <c r="D42" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11766.823207550002</v>
+        <v>9413.4585660400007</v>
       </c>
       <c r="E42" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F42" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>108.85814390611692</v>
+        <v>87.086515124893523</v>
       </c>
       <c r="G42" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>53.931273034604189</v>
+        <v>43.145018427683354</v>
       </c>
       <c r="H42" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11657.965063643878</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>9326.3720509151044</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>34</v>
@@ -2930,26 +2930,26 @@
       </c>
       <c r="D43" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11657.965063643878</v>
+        <v>9326.3720509151044</v>
       </c>
       <c r="E43" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F43" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>109.35707706568662</v>
+        <v>87.485661652549297</v>
       </c>
       <c r="G43" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>53.432339875034494</v>
+        <v>42.745871900027588</v>
       </c>
       <c r="H43" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11548.607986578194</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>9238.8863892625559</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B44" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>35</v>
@@ -2960,26 +2960,26 @@
       </c>
       <c r="D44" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11548.607986578194</v>
+        <v>9238.8863892625559</v>
       </c>
       <c r="E44" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F44" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>109.85829700223768</v>
+        <v>87.886637601790127</v>
       </c>
       <c r="G44" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>52.93111993848342</v>
+        <v>42.344895950786743</v>
       </c>
       <c r="H44" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11438.749689575958</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>9150.9997516607655</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B45" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>36</v>
@@ -2990,26 +2990,26 @@
       </c>
       <c r="D45" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11438.749689575958</v>
+        <v>9150.9997516607655</v>
       </c>
       <c r="E45" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F45" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>110.36181419683128</v>
+        <v>88.289451357465012</v>
       </c>
       <c r="G45" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>52.427602743889842</v>
+        <v>41.942082195111865</v>
       </c>
       <c r="H45" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11328.387875379127</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>9062.7103003033008</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>37</v>
@@ -3020,26 +3020,26 @@
       </c>
       <c r="D46" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11328.387875379127</v>
+        <v>9062.7103003033008</v>
       </c>
       <c r="E46" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F46" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>110.86763917856676</v>
+        <v>88.69411134285339</v>
       </c>
       <c r="G46" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>51.921777762154363</v>
+        <v>41.537422209723488</v>
       </c>
       <c r="H46" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11217.520236200555</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>8974.0161889604442</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>38</v>
@@ -3050,26 +3050,26 @@
       </c>
       <c r="D47" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11217.520236200555</v>
+        <v>8974.0161889604442</v>
       </c>
       <c r="E47" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F47" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>111.37578252480183</v>
+        <v>89.100626019841471</v>
       </c>
       <c r="G47" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>51.413634415919269</v>
+        <v>41.130907532735414</v>
       </c>
       <c r="H47" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>11106.144453675755</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>8884.9155629406014</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B48" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>39</v>
@@ -3080,26 +3080,26 @@
       </c>
       <c r="D48" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>11106.144453675755</v>
+        <v>8884.9155629406014</v>
       </c>
       <c r="E48" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F48" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>111.88625486137386</v>
+        <v>89.509003889099077</v>
       </c>
       <c r="G48" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>50.903162079347261</v>
+        <v>40.722529663477808</v>
       </c>
       <c r="H48" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10994.258198814383</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>8795.4065590515056</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B49" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>40</v>
@@ -3110,26 +3110,26 @@
       </c>
       <c r="D49" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10994.258198814383</v>
+        <v>8795.4065590515056</v>
       </c>
       <c r="E49" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F49" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>112.39906686282183</v>
+        <v>89.919253490257447</v>
       </c>
       <c r="G49" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>50.390350077899299</v>
+        <v>40.312280062319431</v>
       </c>
       <c r="H49" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10881.859131951564</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>8705.4873055612497</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B50" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>41</v>
@@ -3140,26 +3140,26 @@
       </c>
       <c r="D50" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10881.859131951564</v>
+        <v>8705.4873055612497</v>
       </c>
       <c r="E50" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F50" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>112.91422925260974</v>
+        <v>90.331383402087795</v>
       </c>
       <c r="G50" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>49.87518768811136</v>
+        <v>39.90015015048909</v>
       </c>
       <c r="H50" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10768.944902698953</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>8615.1559221591615</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B51" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>42</v>
@@ -3170,26 +3170,26 @@
       </c>
       <c r="D51" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10768.944902698953</v>
+        <v>8615.1559221591615</v>
       </c>
       <c r="E51" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F51" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>113.43175280335089</v>
+        <v>90.745402242680697</v>
       </c>
       <c r="G51" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>49.357664137370236</v>
+        <v>39.48613130989618</v>
       </c>
       <c r="H51" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10655.513149895598</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>8524.4105199164806</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>43</v>
@@ -3200,26 +3200,26 @@
       </c>
       <c r="D52" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10655.513149895598</v>
+        <v>8524.4105199164806</v>
       </c>
       <c r="E52" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F52" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>113.95164833703291</v>
+        <v>91.161318669626326</v>
       </c>
       <c r="G52" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>48.837768603688197</v>
+        <v>39.070214882950559</v>
       </c>
       <c r="H52" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10541.561501558564</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>8433.2492012468501</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B53" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>44</v>
@@ -3230,26 +3230,26 @@
       </c>
       <c r="D53" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10541.561501558564</v>
+        <v>8433.2492012468501</v>
       </c>
       <c r="E53" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F53" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>114.47392672524431</v>
+        <v>91.579141380195438</v>
       </c>
       <c r="G53" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>48.315490215476807</v>
+        <v>38.65239217238144</v>
       </c>
       <c r="H53" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10427.087574833326</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>8341.6700598666612</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B54" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>45</v>
@@ -3260,26 +3260,26 @@
       </c>
       <c r="D54" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10427.087574833326</v>
+        <v>8341.6700598666612</v>
       </c>
       <c r="E54" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F54" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>114.99859888940166</v>
+        <v>91.998879111521333</v>
       </c>
       <c r="G54" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>47.790818051319434</v>
+        <v>38.232654441055544</v>
       </c>
       <c r="H54" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10312.088975943923</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>8249.6711807551383</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B55" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>46</v>
@@ -3290,26 +3290,26 @@
       </c>
       <c r="D55" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10312.088975943923</v>
+        <v>8249.6711807551383</v>
       </c>
       <c r="E55" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F55" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>115.52567580097812</v>
+        <v>92.420540640782477</v>
       </c>
       <c r="G55" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>47.263741139743018</v>
+        <v>37.810992911794408</v>
       </c>
       <c r="H55" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10196.563300142941</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>8157.2506401143528</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B56" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>47</v>
@@ -3320,26 +3320,26 @@
       </c>
       <c r="D56" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10196.563300142941</v>
+        <v>8157.2506401143528</v>
       </c>
       <c r="E56" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F56" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>116.05516848173258</v>
+        <v>92.844134785386061</v>
       </c>
       <c r="G56" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>46.734248458988532</v>
+        <v>37.387398767190824</v>
       </c>
       <c r="H56" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>10080.508131661214</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>8064.4065053289714</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B57" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>48</v>
@@ -3350,26 +3350,26 @@
       </c>
       <c r="D57" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>10080.508131661214</v>
+        <v>8064.4065053289714</v>
       </c>
       <c r="E57" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F57" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>116.58708800394054</v>
+        <v>93.269670403152418</v>
       </c>
       <c r="G57" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>46.202328936780589</v>
+        <v>36.961863149424467</v>
       </c>
       <c r="H57" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9963.9210436572703</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>7971.1368349258164</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>49</v>
@@ -3380,26 +3380,26 @@
       </c>
       <c r="D58" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9963.9210436572703</v>
+        <v>7971.1368349258164</v>
       </c>
       <c r="E58" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F58" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>117.12144549062526</v>
+        <v>93.69715639250019</v>
       </c>
       <c r="G58" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>45.667971450095862</v>
+        <v>36.534377160076687</v>
       </c>
       <c r="H58" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9846.7995981666409</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>7877.4396785333147</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B59" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>50</v>
@@ -3410,26 +3410,26 @@
       </c>
       <c r="D59" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9846.7995981666409</v>
+        <v>7877.4396785333147</v>
       </c>
       <c r="E59" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F59" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>117.65825211579062</v>
+        <v>94.126601692632477</v>
       </c>
       <c r="G59" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>45.131164824930494</v>
+        <v>36.104931859944394</v>
       </c>
       <c r="H59" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9729.1413460508538</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>7783.3130768406827</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B60" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>51</v>
@@ -3440,26 +3440,26 @@
       </c>
       <c r="D60" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9729.1413460508538</v>
+        <v>7783.3130768406827</v>
       </c>
       <c r="E60" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F60" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>118.19751910465466</v>
+        <v>94.558015283723705</v>
       </c>
       <c r="G60" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>44.591897836066458</v>
+        <v>35.673518268853158</v>
       </c>
       <c r="H60" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9610.9438269461953</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>7688.755061556958</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B61" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>52</v>
@@ -3470,26 +3470,26 @@
       </c>
       <c r="D61" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9610.9438269461953</v>
+        <v>7688.755061556958</v>
       </c>
       <c r="E61" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F61" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>118.73925773388433</v>
+        <v>94.991406187107458</v>
       </c>
       <c r="G61" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>44.050159206836781</v>
+        <v>35.240127365469426</v>
       </c>
       <c r="H61" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9492.204569212312</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>7593.7636553698494</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>53</v>
@@ -3500,26 +3500,26 @@
       </c>
       <c r="D62" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9492.204569212312</v>
+        <v>7593.7636553698494</v>
       </c>
       <c r="E62" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F62" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>119.28347933183129</v>
+        <v>95.426783465465036</v>
       </c>
       <c r="G62" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>43.505937608889816</v>
+        <v>34.804750087111842</v>
       </c>
       <c r="H62" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9372.9210898804777</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>7498.3368719043829</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B63" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>54</v>
@@ -3530,26 +3530,26 @@
       </c>
       <c r="D63" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9372.9210898804777</v>
+        <v>7498.3368719043829</v>
       </c>
       <c r="E63" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F63" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>119.83019527876885</v>
+        <v>95.864156223015073</v>
       </c>
       <c r="G63" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>42.959221661952256</v>
+        <v>34.367377329561805</v>
       </c>
       <c r="H63" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9253.090894601708</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>7402.4727156813688</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B64" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>55</v>
@@ -3560,26 +3560,26 @@
       </c>
       <c r="D64" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9253.090894601708</v>
+        <v>7402.4727156813688</v>
       </c>
       <c r="E64" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F64" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>120.37941700712987</v>
+        <v>96.30353360570389</v>
       </c>
       <c r="G64" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>42.40999993359123</v>
+        <v>33.92799994687298</v>
       </c>
       <c r="H64" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9132.7114775945811</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>7306.1691820756669</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B65" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>56</v>
@@ -3590,26 +3590,26 @@
       </c>
       <c r="D65" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9132.7114775945811</v>
+        <v>7306.1691820756669</v>
       </c>
       <c r="E65" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F65" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>120.9311560017459</v>
+        <v>96.744924801396706</v>
       </c>
       <c r="G65" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>41.858260938975221</v>
+        <v>33.486608751180171</v>
       </c>
       <c r="H65" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>9011.7803215928361</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>7209.4242572742696</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B66" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>57</v>
@@ -3620,26 +3620,26 @@
       </c>
       <c r="D66" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>9011.7803215928361</v>
+        <v>7209.4242572742696</v>
       </c>
       <c r="E66" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F66" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>121.48542380008722</v>
+        <v>97.188339040069764</v>
       </c>
       <c r="G66" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>41.303993140633885</v>
+        <v>33.0431945125071</v>
       </c>
       <c r="H66" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8890.2948977927463</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>7112.2359182341988</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B67" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>58</v>
@@ -3650,26 +3650,26 @@
       </c>
       <c r="D67" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8890.2948977927463</v>
+        <v>7112.2359182341988</v>
       </c>
       <c r="E67" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F67" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>122.0422319925043</v>
+        <v>97.633785594003427</v>
       </c>
       <c r="G67" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>40.74718494821682</v>
+        <v>32.59774795857345</v>
       </c>
       <c r="H67" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8768.2526658002444</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>7014.6021326401951</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B68" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>59</v>
@@ -3680,26 +3680,26 @@
       </c>
       <c r="D68" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8768.2526658002444</v>
+        <v>7014.6021326401951</v>
       </c>
       <c r="E68" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F68" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>122.60159222246993</v>
+        <v>98.081273777975937</v>
       </c>
       <c r="G68" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>40.187824718251179</v>
+        <v>32.150259774600933</v>
       </c>
       <c r="H68" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8645.6510735777738</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>6916.520858862219</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B69" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>60</v>
@@ -3710,26 +3710,26 @@
       </c>
       <c r="D69" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8645.6510735777738</v>
+        <v>6916.520858862219</v>
       </c>
       <c r="E69" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F69" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>123.16351618682292</v>
+        <v>98.530812949458323</v>
       </c>
       <c r="G69" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>39.625900753898186</v>
+        <v>31.700720603118551</v>
       </c>
       <c r="H69" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8522.4875573909503</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>6817.9900459127603</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B70" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>61</v>
@@ -3740,26 +3740,26 @@
       </c>
       <c r="D70" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8522.4875573909503</v>
+        <v>6817.9900459127603</v>
       </c>
       <c r="E70" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F70" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>123.72801563601251</v>
+        <v>98.982412508810015</v>
       </c>
       <c r="G70" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>39.061401304708582</v>
+        <v>31.249121043766863</v>
       </c>
       <c r="H70" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8398.7595417549346</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>6719.0076334039477</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B71" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>62</v>
@@ -3770,26 +3770,26 @@
       </c>
       <c r="D71" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8398.7595417549346</v>
+        <v>6719.0076334039477</v>
       </c>
       <c r="E71" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F71" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>124.29510237434424</v>
+        <v>99.436081899475383</v>
       </c>
       <c r="G71" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>38.494314566376858</v>
+        <v>30.795451653101484</v>
       </c>
       <c r="H71" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8274.4644393805938</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>6619.5715515044758</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B72" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>63</v>
@@ -3800,26 +3800,26 @@
       </c>
       <c r="D72" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8274.4644393805938</v>
+        <v>6619.5715515044758</v>
       </c>
       <c r="E72" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F72" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>124.86478826022666</v>
+        <v>99.891830608181323</v>
       </c>
       <c r="G72" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>37.924628680494436</v>
+        <v>30.339702944395547</v>
       </c>
       <c r="H72" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8149.5996511203666</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>6519.6797208962944</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B73" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>64</v>
@@ -3830,26 +3830,26 @@
       </c>
       <c r="D73" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8149.5996511203666</v>
+        <v>6519.6797208962944</v>
       </c>
       <c r="E73" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F73" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>125.43708520641938</v>
+        <v>100.34966816513548</v>
       </c>
       <c r="G73" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>37.352331734301735</v>
+        <v>29.881865387441387</v>
       </c>
       <c r="H73" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>8024.1625659139427</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>6419.3300527311567</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B74" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>65</v>
@@ -3860,26 +3860,26 @@
       </c>
       <c r="D74" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>8024.1625659139427</v>
+        <v>6419.3300527311567</v>
       </c>
       <c r="E74" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F74" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>126.01200518028213</v>
+        <v>100.8096041442257</v>
       </c>
       <c r="G74" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>36.77741176043898</v>
+        <v>29.421929408351186</v>
       </c>
       <c r="H74" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>7898.1505607336585</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>6318.520448586929</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B75" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>66</v>
@@ -3890,26 +3890,26 @@
       </c>
       <c r="D75" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>7898.1505607336585</v>
+        <v>6318.520448586929</v>
       </c>
       <c r="E75" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F75" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>126.58956020402508</v>
+        <v>101.27164816322005</v>
       </c>
       <c r="G75" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>36.19985673669602</v>
+        <v>28.959885389356817</v>
       </c>
       <c r="H75" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>7771.5610005296348</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>6217.2488004237093</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B76" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>67</v>
@@ -3920,26 +3920,26 @@
       </c>
       <c r="D76" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>7771.5610005296348</v>
+        <v>6217.2488004237093</v>
       </c>
       <c r="E76" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F76" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>127.1697623549602</v>
+        <v>101.73580988396814</v>
       </c>
       <c r="G76" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>35.619654585760912</v>
+        <v>28.495723668608726</v>
       </c>
       <c r="H76" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>7644.3912381746723</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>6115.5129905397407</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B77" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>68</v>
@@ -3950,26 +3950,26 @@
       </c>
       <c r="D77" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>7644.3912381746723</v>
+        <v>6115.5129905397407</v>
       </c>
       <c r="E77" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F77" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>127.75262376575375</v>
+        <v>102.202099012603</v>
       </c>
       <c r="G77" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>35.036793174967343</v>
+        <v>28.02943453997387</v>
       </c>
       <c r="H77" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>7516.6386144089211</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>6013.3108915271368</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B78" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>69</v>
@@ -3980,26 +3980,26 @@
       </c>
       <c r="D78" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>7516.6386144089211</v>
+        <v>6013.3108915271368</v>
       </c>
       <c r="E78" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F78" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>128.33815662468012</v>
+        <v>102.6705252997441</v>
       </c>
       <c r="G78" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>34.451260316040972</v>
+        <v>27.561008252832774</v>
       </c>
       <c r="H78" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>7388.3004577842348</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>5910.6403662273879</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B79" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>70</v>
@@ -4010,26 +4010,26 @@
       </c>
       <c r="D79" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>7388.3004577842348</v>
+        <v>5910.6403662273879</v>
       </c>
       <c r="E79" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F79" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>128.92637317587659</v>
+        <v>103.14109854070126</v>
       </c>
       <c r="G79" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>33.86304376484452</v>
+        <v>27.090435011875616</v>
       </c>
       <c r="H79" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>7259.3740846083565</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>5807.4992676866859</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B80" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>71</v>
@@ -4040,26 +4040,26 @@
       </c>
       <c r="D80" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>7259.3740846083565</v>
+        <v>5807.4992676866859</v>
       </c>
       <c r="E80" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F80" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>129.51728571959936</v>
+        <v>103.61382857567949</v>
       </c>
       <c r="G80" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>33.272131221121754</v>
+        <v>26.617704976897397</v>
       </c>
       <c r="H80" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>7129.8567988887626</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>5703.8854391110126</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B81" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>72</v>
@@ -4070,26 +4070,26 @@
       </c>
       <c r="D81" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>7129.8567988887626</v>
+        <v>5703.8854391110126</v>
       </c>
       <c r="E81" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F81" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>130.11090661248085</v>
+        <v>104.08872528998468</v>
       </c>
       <c r="G81" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>32.67851032824025</v>
+        <v>26.142808262592201</v>
       </c>
       <c r="H81" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>6999.7458922762835</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>5599.7967138210242</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B82" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>73</v>
@@ -4100,26 +4100,26 @@
       </c>
       <c r="D82" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>6999.7458922762835</v>
+        <v>5599.7967138210242</v>
       </c>
       <c r="E82" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F82" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>130.70724826778806</v>
+        <v>104.56579861423045</v>
       </c>
       <c r="G82" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>32.082168672933051</v>
+        <v>25.665734938346436</v>
       </c>
       <c r="H82" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>6869.0386440084931</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>5495.2309152067955</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B83" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>74</v>
@@ -4130,26 +4130,26 @@
       </c>
       <c r="D83" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>6869.0386440084931</v>
+        <v>5495.2309152067955</v>
       </c>
       <c r="E83" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F83" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>131.30632315568209</v>
+        <v>105.04505852454565</v>
       </c>
       <c r="G83" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>31.483093785039028</v>
+        <v>25.186475028031218</v>
       </c>
       <c r="H83" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>6737.7323208528123</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>5390.1858566822502</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B84" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>75</v>
@@ -4160,26 +4160,26 @@
       </c>
       <c r="D84" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>6737.7323208528123</v>
+        <v>5390.1858566822502</v>
       </c>
       <c r="E84" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F84" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>131.90814380347896</v>
+        <v>105.52651504278317</v>
       </c>
       <c r="G84" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>30.881273137242147</v>
+        <v>24.705018509793717</v>
       </c>
       <c r="H84" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>6605.8241770493314</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>5284.6593416394662</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B85" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>76</v>
@@ -4190,26 +4190,26 @@
       </c>
       <c r="D85" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>6605.8241770493314</v>
+        <v>5284.6593416394662</v>
       </c>
       <c r="E85" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F85" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>132.51272279591157</v>
+        <v>106.01017823672925</v>
       </c>
       <c r="G85" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>30.276694144809532</v>
+        <v>24.221355315847624</v>
       </c>
       <c r="H85" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>6473.3114542534204</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>5178.649163402737</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B86" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>77</v>
@@ -4220,26 +4220,26 @@
       </c>
       <c r="D86" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>6473.3114542534204</v>
+        <v>5178.649163402737</v>
       </c>
       <c r="E86" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F86" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>133.12007277539283</v>
+        <v>106.49605822031427</v>
       </c>
       <c r="G86" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>29.669344165328273</v>
+        <v>23.735475332262617</v>
       </c>
       <c r="H86" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>6340.1913814780237</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>5072.1531051824204</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B87" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>78</v>
@@ -4250,26 +4250,26 @@
       </c>
       <c r="D87" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>6340.1913814780237</v>
+        <v>5072.1531051824204</v>
       </c>
       <c r="E87" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F87" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>133.73020644228006</v>
+        <v>106.98416515382404</v>
       </c>
       <c r="G87" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>29.059210498441054</v>
+        <v>23.24736839875284</v>
       </c>
       <c r="H87" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>6206.4611750357453</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>4965.1689400285995</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B88" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>79</v>
@@ -4280,26 +4280,26 @@
       </c>
       <c r="D88" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>6206.4611750357453</v>
+        <v>4965.1689400285995</v>
       </c>
       <c r="E88" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F88" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>134.34313655514052</v>
+        <v>107.4745092441124</v>
       </c>
       <c r="G88" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>28.446280385580607</v>
+        <v>22.75702430846448</v>
       </c>
       <c r="H88" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>6072.1180384806121</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>4857.6944307844878</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B89" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>80</v>
@@ -4310,26 +4310,26 @@
       </c>
       <c r="D89" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>6072.1180384806121</v>
+        <v>4857.6944307844878</v>
       </c>
       <c r="E89" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F89" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>134.95887593101824</v>
+        <v>107.96710074481457</v>
       </c>
       <c r="G89" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>27.830541009702877</v>
+        <v>22.264432807762297</v>
       </c>
       <c r="H89" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>5937.1591625495876</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>4749.7273300396701</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B90" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>81</v>
@@ -4340,26 +4340,26 @@
       </c>
       <c r="D90" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>5937.1591625495876</v>
+        <v>4749.7273300396701</v>
       </c>
       <c r="E90" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F90" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>135.57743744570206</v>
+        <v>108.46194995656164</v>
       </c>
       <c r="G90" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>27.211979495019047</v>
+        <v>21.769583596015238</v>
       </c>
       <c r="H90" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>5801.5817251038843</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>4641.2653800831067</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B91" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>82</v>
@@ -4370,26 +4370,26 @@
       </c>
       <c r="D91" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>5801.5817251038843</v>
+        <v>4641.2653800831067</v>
       </c>
       <c r="E91" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F91" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>136.19883403399487</v>
+        <v>108.95906722719589</v>
       </c>
       <c r="G91" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>26.590582906726244</v>
+        <v>21.272466325380993</v>
       </c>
       <c r="H91" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>5665.3828910698885</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>4532.3063128559133</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B92" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>83</v>
@@ -4400,26 +4400,26 @@
       </c>
       <c r="D92" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>5665.3828910698885</v>
+        <v>4532.3063128559133</v>
       </c>
       <c r="E92" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F92" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>136.82307868998402</v>
+        <v>109.4584629519872</v>
       </c>
       <c r="G92" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>25.966338250737099</v>
+        <v>20.773070600589676</v>
       </c>
       <c r="H92" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>5528.55981237991</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>4422.8478499039265</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B93" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>84</v>
@@ -4430,26 +4430,26 @@
       </c>
       <c r="D93" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>5528.55981237991</v>
+        <v>4422.8478499039265</v>
       </c>
       <c r="E93" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F93" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>137.45018446731308</v>
+        <v>109.96014757385046</v>
       </c>
       <c r="G93" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>25.339232473408003</v>
+        <v>20.2713859787264</v>
       </c>
       <c r="H93" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>5391.1096279125923</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>4312.887702330072</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B94" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>85</v>
@@ -4460,26 +4460,26 @@
       </c>
       <c r="D94" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>5391.1096279125923</v>
+        <v>4312.887702330072</v>
       </c>
       <c r="E94" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F94" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>138.08016447945496</v>
+        <v>110.46413158356395</v>
       </c>
       <c r="G94" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>24.709252461266157</v>
+        <v>19.767401969012926</v>
       </c>
       <c r="H94" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>5253.0294634331367</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>4202.4235707465104</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B95" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>86</v>
@@ -4490,26 +4490,26 @@
       </c>
       <c r="D95" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>5253.0294634331367</v>
+        <v>4202.4235707465104</v>
       </c>
       <c r="E95" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F95" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>138.71303189998579</v>
+        <v>110.97042551998864</v>
       </c>
       <c r="G95" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>24.076385040735321</v>
+        <v>19.261108032588258</v>
       </c>
       <c r="H95" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>5114.3164315331487</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>4091.4531452265182</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B96" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>87</v>
@@ -4520,26 +4520,26 @@
       </c>
       <c r="D96" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>5114.3164315331487</v>
+        <v>4091.4531452265182</v>
       </c>
       <c r="E96" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F96" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>139.34879996286074</v>
+        <v>111.47903997028857</v>
       </c>
       <c r="G96" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>23.440616977860383</v>
+        <v>18.752493582288306</v>
       </c>
       <c r="H96" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>4974.9676315702891</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>3979.9741052562313</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B97" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>88</v>
@@ -4550,26 +4550,26 @@
       </c>
       <c r="D97" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>4974.9676315702891</v>
+        <v>3979.9741052562313</v>
       </c>
       <c r="E97" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F97" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>139.98748196269051</v>
+        <v>111.9899855701524</v>
       </c>
       <c r="G97" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>22.801934978030605</v>
+        <v>18.241547982424482</v>
       </c>
       <c r="H97" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>4834.9801496075961</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>3867.9841196860798</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B98" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>89</v>
@@ -4580,26 +4580,26 @@
       </c>
       <c r="D98" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>4834.9801496075961</v>
+        <v>3867.9841196860798</v>
       </c>
       <c r="E98" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F98" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>140.62909125501949</v>
+        <v>112.5032730040156</v>
       </c>
       <c r="G98" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>22.160325685701608</v>
+        <v>17.728260548561284</v>
       </c>
       <c r="H98" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>4694.3510583525785</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>3755.480846682065</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B99" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>90</v>
@@ -4610,26 +4610,26 @@
       </c>
       <c r="D99" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>4694.3510583525785</v>
+        <v>3755.480846682065</v>
       </c>
       <c r="E99" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F99" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>141.273641256605</v>
+        <v>113.01891300528401</v>
       </c>
       <c r="G99" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>21.5157756841161</v>
+        <v>17.212620547292882</v>
       </c>
       <c r="H99" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>4553.0774170959739</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>3642.461933676781</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B100" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>91</v>
@@ -4640,26 +4640,26 @@
       </c>
       <c r="D100" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>4553.0774170959739</v>
+        <v>3642.461933676781</v>
       </c>
       <c r="E100" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F100" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>141.92114544569779</v>
+        <v>113.53691635655822</v>
       </c>
       <c r="G100" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>20.868271495023329</v>
+        <v>16.694617196018662</v>
       </c>
       <c r="H100" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>4411.1562716502776</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>3528.9250173202217</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B101" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>92</v>
@@ -4670,26 +4670,26 @@
       </c>
       <c r="D101" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>4411.1562716502776</v>
+        <v>3528.9250173202217</v>
       </c>
       <c r="E101" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F101" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>142.57161736232388</v>
+        <v>114.05729388985911</v>
       </c>
       <c r="G101" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>20.217799578397209</v>
+        <v>16.174239662717767</v>
       </c>
       <c r="H101" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>4268.5846542879517</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>3414.8677234303632</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B102" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>93</v>
@@ -4700,26 +4700,26 @@
       </c>
       <c r="D102" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>4268.5846542879517</v>
+        <v>3414.8677234303632</v>
       </c>
       <c r="E102" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F102" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>143.22507060856788</v>
+        <v>114.58005648685429</v>
       </c>
       <c r="G102" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>19.564346332153224</v>
+        <v>15.651477065722579</v>
       </c>
       <c r="H102" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>4125.3595836793829</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>3300.2876669435082</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B103" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>94</v>
@@ -4730,26 +4730,26 @@
       </c>
       <c r="D103" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>4125.3595836793829</v>
+        <v>3300.2876669435082</v>
       </c>
       <c r="E103" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F103" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>143.88151884885716</v>
+        <v>115.10521507908571</v>
       </c>
       <c r="G103" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>18.907898091863959</v>
+        <v>15.126318473491164</v>
       </c>
       <c r="H103" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>3981.4780648305277</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>3185.1824518644244</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B104" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>95</v>
@@ -4760,26 +4760,26 @@
       </c>
       <c r="D104" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>3981.4780648305277</v>
+        <v>3185.1824518644244</v>
       </c>
       <c r="E104" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F104" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>144.54097581024777</v>
+        <v>115.63278064819821</v>
       </c>
       <c r="G104" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>18.248441130473363</v>
+        <v>14.59875290437869</v>
       </c>
       <c r="H104" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>3836.9370890202808</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>3069.5496712162258</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B105" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>96</v>
@@ -4790,26 +4790,26 @@
       </c>
       <c r="D105" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>3836.9370890202808</v>
+        <v>3069.5496712162258</v>
       </c>
       <c r="E105" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F105" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>145.20345528271139</v>
+        <v>116.1627642261691</v>
       </c>
       <c r="G105" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>17.58596165800973</v>
+        <v>14.06876932640778</v>
       </c>
       <c r="H105" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>3691.7336337375637</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>2953.3869069900502</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B106" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>97</v>
@@ -4820,26 +4820,26 @@
       </c>
       <c r="D106" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>3691.7336337375637</v>
+        <v>2953.3869069900502</v>
       </c>
       <c r="E106" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F106" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>145.8689711194238</v>
+        <v>116.69517689553903</v>
       </c>
       <c r="G106" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>16.920445821297299</v>
+        <v>13.536356657037839</v>
       </c>
       <c r="H106" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>3545.8646626181362</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>2836.6917300945097</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B107" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>98</v>
@@ -4850,26 +4850,26 @@
       </c>
       <c r="D107" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>3545.8646626181362</v>
+        <v>2836.6917300945097</v>
       </c>
       <c r="E107" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F107" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>146.53753723705449</v>
+        <v>117.23002978964359</v>
       </c>
       <c r="G107" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>16.251879703666607</v>
+        <v>13.001503762933286</v>
       </c>
       <c r="H107" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>3399.3271253810817</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>2719.4617003048679</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B108" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>99</v>
@@ -4880,26 +4880,26 @@
       </c>
       <c r="D108" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>3399.3271253810817</v>
+        <v>2719.4617003048679</v>
       </c>
       <c r="E108" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F108" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>147.20916761605767</v>
+        <v>117.76733409284613</v>
       </c>
       <c r="G108" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>15.580249324663441</v>
+        <v>12.464199459730754</v>
       </c>
       <c r="H108" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>3252.1179577650291</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>2601.6943662120248</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B109" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>100</v>
@@ -4910,26 +4910,26 @@
       </c>
       <c r="D109" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>3252.1179577650291</v>
+        <v>2601.6943662120248</v>
       </c>
       <c r="E109" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F109" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>147.8838763009646</v>
+        <v>118.30710104077167</v>
       </c>
       <c r="G109" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>14.905540639756511</v>
+        <v>11.924432511805207</v>
       </c>
       <c r="H109" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>3104.2340814640629</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>2483.3872651712518</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B110" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>101</v>
@@ -4940,26 +4940,26 @@
       </c>
       <c r="D110" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>3104.2340814640629</v>
+        <v>2483.3872651712518</v>
       </c>
       <c r="E110" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F110" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>148.56167740067735</v>
+        <v>118.84934192054187</v>
       </c>
       <c r="G110" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>14.227739540043757</v>
+        <v>11.382191632035005</v>
       </c>
       <c r="H110" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>2955.6724040633781</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>2364.5379232507039</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B111" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>102</v>
@@ -4970,26 +4970,26 @@
       </c>
       <c r="D111" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>2955.6724040633781</v>
+        <v>2364.5379232507039</v>
       </c>
       <c r="E111" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F111" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>149.2425850887638</v>
+        <v>119.39406807101103</v>
       </c>
       <c r="G111" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>13.546831851957318</v>
+        <v>10.837465481565854</v>
       </c>
       <c r="H111" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>2806.429818974615</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>2245.1438551796928</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B112" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>103</v>
@@ -5000,26 +5000,26 @@
       </c>
       <c r="D112" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>2806.429818974615</v>
+        <v>2245.1438551796928</v>
       </c>
       <c r="E112" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F112" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>149.92661360375396</v>
+        <v>119.94129088300315</v>
       </c>
       <c r="G112" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>12.862803336967151</v>
+        <v>10.290242669573718</v>
       </c>
       <c r="H112" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>2656.5032053708637</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>2125.2025642966946</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B113" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>104</v>
@@ -5030,26 +5030,26 @@
       </c>
       <c r="D113" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>2656.5032053708637</v>
+        <v>2125.2025642966946</v>
       </c>
       <c r="E113" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F113" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>150.61377724943782</v>
+        <v>120.49102179955025</v>
       </c>
       <c r="G113" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>12.175639691283276</v>
+        <v>9.7405117530266221</v>
       </c>
       <c r="H113" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>2505.8894281214343</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>2004.7115424971489</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B114" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>105</v>
@@ -5060,26 +5060,26 @@
       </c>
       <c r="D114" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>2505.8894281214343</v>
+        <v>2004.7115424971489</v>
       </c>
       <c r="E114" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F114" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>151.30409039516442</v>
+        <v>121.04327231613154</v>
       </c>
       <c r="G114" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>11.485326545556688</v>
+        <v>9.1882612364453511</v>
       </c>
       <c r="H114" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>2354.5853377262611</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>1883.6682701810096</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B115" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>106</v>
@@ -5090,26 +5090,26 @@
       </c>
       <c r="D115" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>2354.5853377262611</v>
+        <v>1883.6682701810096</v>
       </c>
       <c r="E115" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F115" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>151.99756747614225</v>
+        <v>121.5980539809138</v>
       </c>
       <c r="G115" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>10.791849464578851</v>
+        <v>8.633479571663079</v>
       </c>
       <c r="H115" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>2202.5877702501202</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>1762.0702162000998</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B116" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>107</v>
@@ -5120,26 +5120,26 @@
       </c>
       <c r="D116" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>2202.5877702501202</v>
+        <v>1762.0702162000998</v>
       </c>
       <c r="E116" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F116" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>152.69422299374125</v>
+        <v>122.15537839499299</v>
       </c>
       <c r="G116" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>10.095193946979863</v>
+        <v>8.0761551575838908</v>
       </c>
       <c r="H116" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>2049.8935472563753</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>1639.9148378050995</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B117" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>108</v>
@@ -5150,26 +5150,26 @@
       </c>
       <c r="D117" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>2049.8935472563753</v>
+        <v>1639.9148378050995</v>
       </c>
       <c r="E117" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F117" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>153.3940715157959</v>
+        <v>122.7152572126367</v>
       </c>
       <c r="G117" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>9.3953454249252175</v>
+        <v>7.5162763399401733</v>
       </c>
       <c r="H117" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>1896.4994757405839</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>1517.1995805924671</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B118" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>109</v>
@@ -5180,26 +5180,26 @@
       </c>
       <c r="D118" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>1896.4994757405839</v>
+        <v>1517.1995805924671</v>
       </c>
       <c r="E118" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F118" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>154.09712767690996</v>
+        <v>123.27770214152795</v>
       </c>
       <c r="G118" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>8.6922892638111531</v>
+        <v>6.9538314110489221</v>
       </c>
       <c r="H118" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>1742.4023480636715</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>1393.9218784509394</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B119" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>110</v>
@@ -5210,26 +5210,26 @@
       </c>
       <c r="D119" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>1742.4023480636715</v>
+        <v>1393.9218784509394</v>
       </c>
       <c r="E119" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F119" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>154.80340617876246</v>
+        <v>123.84272494300996</v>
       </c>
       <c r="G119" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>7.9860107619586502</v>
+        <v>6.3888086095669196</v>
       </c>
       <c r="H119" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>1587.5989418849094</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>1270.0791535079261</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B120" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>111</v>
@@ -5240,26 +5240,26 @@
       </c>
       <c r="D120" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>1587.5989418849094</v>
+        <v>1270.0791535079261</v>
       </c>
       <c r="E120" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F120" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>155.51292179041513</v>
+        <v>124.41033743233208</v>
       </c>
       <c r="G120" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>7.2764951503059878</v>
+        <v>5.8211961202447897</v>
       </c>
       <c r="H120" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>1432.086020094499</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>1145.6688160755984</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B121" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>112</v>
@@ -5270,26 +5270,26 @@
       </c>
       <c r="D121" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>1432.086020094499</v>
+        <v>1145.6688160755984</v>
       </c>
       <c r="E121" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F121" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>156.22568934862122</v>
+        <v>124.98055147889696</v>
       </c>
       <c r="G121" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>6.5637275920999185</v>
+        <v>5.2509820736799346</v>
       </c>
       <c r="H121" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>1275.8603307458689</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>1020.688264596698</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B122" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>113</v>
@@ -5300,26 +5300,26 @@
       </c>
       <c r="D122" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>1275.8603307458689</v>
+        <v>1020.688264596698</v>
       </c>
       <c r="E122" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F122" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>156.94172375813571</v>
+        <v>125.55337900650855</v>
       </c>
       <c r="G122" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>5.8476931825854042</v>
+        <v>4.6781545460683231</v>
       </c>
       <c r="H122" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>1118.9186069877323</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>895.13488559018879</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B123" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>114</v>
@@ -5330,26 +5330,26 @@
       </c>
       <c r="D123" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>1118.9186069877323</v>
+        <v>895.13488559018879</v>
       </c>
       <c r="E123" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F123" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>157.66103999202713</v>
+        <v>126.12883199362172</v>
       </c>
       <c r="G123" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>5.1283769486939486</v>
+        <v>4.1027015589551583</v>
       </c>
       <c r="H123" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>961.25756699570411</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>769.00605359656765</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B124" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>115</v>
@@ -5360,26 +5360,26 @@
       </c>
       <c r="D124" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>961.25756699570411</v>
+        <v>769.00605359656765</v>
       </c>
       <c r="E124" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F124" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>158.38365309199062</v>
+        <v>126.7069224735925</v>
       </c>
       <c r="G124" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>4.4057638487304915</v>
+        <v>3.524611078984393</v>
       </c>
       <c r="H124" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>802.8739139037134</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>642.29913112297436</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B125" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>116</v>
@@ -5390,26 +5390,26 @@
       </c>
       <c r="D125" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>802.8739139037134</v>
+        <v>642.29913112297436</v>
       </c>
       <c r="E125" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F125" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>159.10957816866224</v>
+        <v>127.28766253492978</v>
       </c>
       <c r="G125" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>3.6798387720588672</v>
+        <v>2.9438710176470937</v>
       </c>
       <c r="H125" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>643.76433573504983</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>515.0114685880435</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B126" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>117</v>
@@ -5420,26 +5420,26 @@
       </c>
       <c r="D126" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>643.76433573504983</v>
+        <v>515.0114685880435</v>
       </c>
       <c r="E126" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F126" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>159.8388304019353</v>
+        <v>127.87106432154822</v>
       </c>
       <c r="G126" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>2.9505865387858323</v>
+        <v>2.3604692310286657</v>
       </c>
       <c r="H126" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>483.92550533311442</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>387.14040426649444</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B127" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>118</v>
@@ -5450,26 +5450,26 @@
       </c>
       <c r="D127" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>483.92550533311442</v>
+        <v>387.14040426649444</v>
       </c>
       <c r="E127" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F127" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>160.57142504127748</v>
+        <v>128.45714003302197</v>
       </c>
       <c r="G127" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>2.2179918994436285</v>
+        <v>1.7743935195549028</v>
       </c>
       <c r="H127" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>323.354080291836</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>258.68326423347025</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B128" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>119</v>
@@ -5480,26 +5480,26 @@
       </c>
       <c r="D128" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>323.354080291836</v>
+        <v>258.68326423347025</v>
       </c>
       <c r="E128" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F128" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>161.30737740604999</v>
+        <v>129.04590192484</v>
       </c>
       <c r="G128" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>1.4820395346711064</v>
+        <v>1.185631627736885</v>
       </c>
       <c r="H128" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>162.04670288578927</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>129.63736230863287</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B129" s="9">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v>120</v>
@@ -5510,26 +5510,26 @@
       </c>
       <c r="D129" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,DarlehensWert,""), "")</f>
-        <v>162.04670288578927</v>
+        <v>129.63736230863287</v>
       </c>
       <c r="E129" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,MonatlicheZahlung,""), "")</f>
-        <v>162.78941694072111</v>
+        <v>130.23153355257688</v>
       </c>
       <c r="F129" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,Kapital,""), "")</f>
-        <v>162.04670288582776</v>
+        <v>129.63736230866218</v>
       </c>
       <c r="G129" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZinsBetrag,""), "")</f>
-        <v>0.74271405489337727</v>
+        <v>0.59417124391470177</v>
       </c>
       <c r="H129" s="11">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,AbschlussSaldo,""), "")</f>
-        <v>-4.0017766878008842E-11</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" ht="20.149999999999999" customHeight="1">
+        <v>-2.9103830456733704E-11</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B130" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -5559,7 +5559,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="131" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B131" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -5589,7 +5589,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="132" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B132" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -5619,7 +5619,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="133" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B133" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -5649,7 +5649,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="134" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B134" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -5679,7 +5679,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="135" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B135" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -5709,7 +5709,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="136" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B136" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -5739,7 +5739,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="137" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B137" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -5769,7 +5769,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="138" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B138" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -5799,7 +5799,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="139" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B139" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -5829,7 +5829,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="140" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B140" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -5859,7 +5859,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="141" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B141" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -5889,7 +5889,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="142" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B142" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -5919,7 +5919,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="143" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B143" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -5949,7 +5949,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="144" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B144" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -5979,7 +5979,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="145" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B145" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6009,7 +6009,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="146" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B146" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6039,7 +6039,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="147" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B147" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6069,7 +6069,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="148" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B148" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6099,7 +6099,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="149" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B149" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6129,7 +6129,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="150" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B150" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6159,7 +6159,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="151" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B151" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6189,7 +6189,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="152" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B152" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6219,7 +6219,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="153" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B153" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6249,7 +6249,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="154" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B154" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6279,7 +6279,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="155" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B155" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6309,7 +6309,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="156" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B156" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6339,7 +6339,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="157" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B157" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6369,7 +6369,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="158" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B158" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6399,7 +6399,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="159" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B159" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6429,7 +6429,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="160" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B160" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6459,7 +6459,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="161" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B161" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6489,7 +6489,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="162" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B162" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6519,7 +6519,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="163" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B163" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6549,7 +6549,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="164" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B164" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6579,7 +6579,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="165" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B165" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6609,7 +6609,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="166" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B166" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6639,7 +6639,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="167" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B167" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6669,7 +6669,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="168" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B168" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6699,7 +6699,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="169" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B169" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6729,7 +6729,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="170" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B170" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6759,7 +6759,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="171" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B171" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6789,7 +6789,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="172" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B172" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6819,7 +6819,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="173" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B173" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6849,7 +6849,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="174" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B174" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6879,7 +6879,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="175" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B175" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6909,7 +6909,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="176" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B176" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6939,7 +6939,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="177" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B177" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6969,7 +6969,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="178" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B178" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -6999,7 +6999,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="179" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B179" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7029,7 +7029,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="180" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B180" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7059,7 +7059,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="181" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B181" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7089,7 +7089,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="182" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B182" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7119,7 +7119,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="183" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B183" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7149,7 +7149,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="184" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B184" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7179,7 +7179,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="185" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B185" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7209,7 +7209,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="186" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B186" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7239,7 +7239,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="187" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B187" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7269,7 +7269,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="188" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B188" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7299,7 +7299,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="189" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B189" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7329,7 +7329,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="190" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B190" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7359,7 +7359,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="191" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B191" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7389,7 +7389,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="192" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B192" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7419,7 +7419,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="193" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B193" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7449,7 +7449,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="194" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B194" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7479,7 +7479,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="195" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B195" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7509,7 +7509,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="196" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B196" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7539,7 +7539,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="197" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B197" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7569,7 +7569,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="198" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B198" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7599,7 +7599,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="199" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B199" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7629,7 +7629,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="200" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B200" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7659,7 +7659,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="201" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B201" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7689,7 +7689,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="202" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B202" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7719,7 +7719,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="203" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B203" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7749,7 +7749,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="204" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B204" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7779,7 +7779,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="205" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B205" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7809,7 +7809,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="206" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B206" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7839,7 +7839,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="207" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B207" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7869,7 +7869,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="208" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B208" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7899,7 +7899,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="209" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B209" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7929,7 +7929,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="210" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B210" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7959,7 +7959,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="211" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B211" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -7989,7 +7989,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="212" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B212" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8019,7 +8019,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="213" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B213" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8049,7 +8049,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="214" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B214" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8079,7 +8079,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="215" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B215" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8109,7 +8109,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="216" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B216" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8139,7 +8139,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="217" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B217" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8169,7 +8169,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="218" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B218" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8199,7 +8199,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="219" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B219" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8229,7 +8229,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="220" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B220" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8259,7 +8259,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="221" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B221" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8289,7 +8289,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="222" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B222" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8319,7 +8319,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="223" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B223" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8349,7 +8349,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="224" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B224" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8379,7 +8379,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="225" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B225" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8409,7 +8409,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="226" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B226" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8439,7 +8439,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="227" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B227" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8469,7 +8469,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="228" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B228" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8499,7 +8499,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="229" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B229" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8529,7 +8529,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="230" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B230" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8559,7 +8559,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="231" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B231" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8589,7 +8589,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="232" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B232" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8619,7 +8619,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="233" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B233" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8649,7 +8649,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="234" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B234" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8679,7 +8679,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="235" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B235" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="236" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B236" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8739,7 +8739,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="237" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B237" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8769,7 +8769,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="238" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B238" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8799,7 +8799,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="239" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B239" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8829,7 +8829,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="240" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B240" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8859,7 +8859,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="241" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B241" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8889,7 +8889,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="242" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B242" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8919,7 +8919,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="243" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B243" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8949,7 +8949,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="244" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B244" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -8979,7 +8979,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="245" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B245" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9009,7 +9009,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="246" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B246" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9039,7 +9039,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="247" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B247" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9069,7 +9069,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="248" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B248" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9099,7 +9099,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="249" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B249" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9129,7 +9129,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="250" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B250" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9159,7 +9159,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="251" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B251" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9189,7 +9189,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="252" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B252" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9219,7 +9219,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="253" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B253" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9249,7 +9249,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="254" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B254" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9279,7 +9279,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="255" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B255" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9309,7 +9309,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="256" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B256" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9339,7 +9339,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="257" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B257" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9369,7 +9369,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="258" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B258" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9399,7 +9399,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="259" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B259" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9429,7 +9429,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="260" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B260" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9459,7 +9459,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="261" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B261" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9489,7 +9489,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="262" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B262" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9519,7 +9519,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="263" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B263" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9549,7 +9549,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="264" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B264" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9579,7 +9579,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="265" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B265" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9609,7 +9609,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="266" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B266" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9639,7 +9639,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="267" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B267" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9669,7 +9669,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="268" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B268" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9699,7 +9699,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="269" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B269" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9729,7 +9729,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="270" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B270" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9759,7 +9759,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="271" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B271" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9789,7 +9789,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="272" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B272" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9819,7 +9819,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="273" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B273" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9849,7 +9849,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="274" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B274" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9879,7 +9879,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="275" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B275" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9909,7 +9909,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="276" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B276" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9939,7 +9939,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="277" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B277" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9969,7 +9969,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="278" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B278" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -9999,7 +9999,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="279" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B279" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10029,7 +10029,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="280" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B280" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10059,7 +10059,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="281" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B281" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10089,7 +10089,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="282" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B282" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10119,7 +10119,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="283" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B283" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10149,7 +10149,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="284" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B284" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10179,7 +10179,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="285" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B285" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10209,7 +10209,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="286" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B286" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10239,7 +10239,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="287" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B287" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10269,7 +10269,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="288" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B288" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10299,7 +10299,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="289" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B289" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10329,7 +10329,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="290" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B290" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10359,7 +10359,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="291" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B291" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10389,7 +10389,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="292" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B292" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10419,7 +10419,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="293" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B293" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10449,7 +10449,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="294" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B294" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10479,7 +10479,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="295" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B295" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10509,7 +10509,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="296" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B296" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10539,7 +10539,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="297" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B297" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10569,7 +10569,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="298" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B298" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10599,7 +10599,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="299" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B299" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="300" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B300" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10659,7 +10659,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="301" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B301" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10689,7 +10689,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="302" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B302" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10719,7 +10719,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="303" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B303" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10749,7 +10749,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="304" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B304" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10779,7 +10779,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="305" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B305" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10809,7 +10809,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="306" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B306" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10839,7 +10839,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="307" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B307" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10869,7 +10869,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="308" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B308" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10899,7 +10899,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="309" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B309" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10929,7 +10929,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="310" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B310" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10959,7 +10959,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="311" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B311" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -10989,7 +10989,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="312" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B312" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11019,7 +11019,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="313" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B313" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11049,7 +11049,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="314" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B314" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11079,7 +11079,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="315" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B315" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11109,7 +11109,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="316" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B316" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11139,7 +11139,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="317" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B317" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11169,7 +11169,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="318" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B318" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11199,7 +11199,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="319" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B319" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11229,7 +11229,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="320" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B320" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11259,7 +11259,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="321" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B321" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11289,7 +11289,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="322" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B322" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="323" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B323" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11349,7 +11349,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="324" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B324" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11379,7 +11379,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="325" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B325" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11409,7 +11409,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="326" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B326" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11439,7 +11439,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="327" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B327" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11469,7 +11469,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="328" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B328" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11499,7 +11499,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="329" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B329" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11529,7 +11529,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="330" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B330" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11559,7 +11559,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="331" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B331" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11589,7 +11589,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="332" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B332" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11619,7 +11619,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="333" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B333" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11649,7 +11649,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="334" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B334" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11679,7 +11679,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="335" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B335" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11709,7 +11709,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="336" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B336" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11739,7 +11739,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="337" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B337" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11769,7 +11769,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="338" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B338" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11799,7 +11799,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="339" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B339" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11829,7 +11829,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="340" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B340" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11859,7 +11859,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="341" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B341" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11889,7 +11889,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="342" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B342" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11919,7 +11919,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="343" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B343" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11949,7 +11949,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="344" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B344" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -11979,7 +11979,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="345" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B345" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12009,7 +12009,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="346" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B346" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12039,7 +12039,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="347" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B347" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12069,7 +12069,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="348" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B348" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12099,7 +12099,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="349" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B349" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12129,7 +12129,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="350" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B350" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12159,7 +12159,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="351" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B351" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12189,7 +12189,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="352" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B352" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12219,7 +12219,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="353" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B353" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12249,7 +12249,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="354" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B354" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12279,7 +12279,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="355" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B355" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12309,7 +12309,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="356" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B356" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12339,7 +12339,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="357" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B357" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12369,7 +12369,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="358" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B358" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12399,7 +12399,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="359" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B359" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12429,7 +12429,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="360" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B360" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12459,7 +12459,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="361" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B361" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12489,7 +12489,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="362" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B362" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12519,7 +12519,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="363" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B363" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12549,7 +12549,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="364" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B364" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12579,7 +12579,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="365" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B365" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12609,7 +12609,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="366" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B366" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12639,7 +12639,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="367" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B367" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12669,7 +12669,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="368" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B368" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12699,7 +12699,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="2:8" ht="20.149999999999999" customHeight="1">
+    <row r="369" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B369" s="9" t="str">
         <f ca="1">IFERROR(IF(DarlehenNichtBezahlt*DarlehenIstGut,ZahlungNummer,""), "")</f>
         <v/>
@@ -12731,17 +12731,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C10:G369">
@@ -13051,21 +13051,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13089,14 +13089,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72EA4DC2-5468-46D3-9CB3-A7301676DD3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F91CE3-C58C-4E76-9DA8-D93EEEA78136}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13112,4 +13104,12 @@
     <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72EA4DC2-5468-46D3-9CB3-A7301676DD3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>